--- a/semana/semana_completa_17.xlsx
+++ b/semana/semana_completa_17.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DCBD83C-7790-437D-9876-B1F152A14645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B9686FD-A96E-48EE-892D-259A425DB5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
     <sheet name="Detalle_NS" sheetId="2" r:id="rId2"/>
     <sheet name="Detalle_VOK" sheetId="3" r:id="rId3"/>
+    <sheet name="Carta_cr" sheetId="5" r:id="rId4"/>
+    <sheet name="Detalle_cr" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="809">
   <si>
     <t>c</t>
   </si>
@@ -1305,6 +1307,1161 @@
   </si>
   <si>
     <t>malos</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>rutas</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>NAPS</t>
+  </si>
+  <si>
+    <t>TERNIUM ETRR</t>
+  </si>
+  <si>
+    <t>id_ruta</t>
+  </si>
+  <si>
+    <t>total_paradas</t>
+  </si>
+  <si>
+    <t>total_paradas_enc</t>
+  </si>
+  <si>
+    <t>total_paradas_no_enc</t>
+  </si>
+  <si>
+    <t>E-ABB-N0001</t>
+  </si>
+  <si>
+    <t>E-ABB-N0003</t>
+  </si>
+  <si>
+    <t>E-ABB-N0005</t>
+  </si>
+  <si>
+    <t>E-ABB-N0007</t>
+  </si>
+  <si>
+    <t>E-ABB-N0009</t>
+  </si>
+  <si>
+    <t>E-ABB-N0011</t>
+  </si>
+  <si>
+    <t>E-ABB-N0013</t>
+  </si>
+  <si>
+    <t>E-ABB-N0015</t>
+  </si>
+  <si>
+    <t>E-ABB-N0017</t>
+  </si>
+  <si>
+    <t>E-ABB-N0021</t>
+  </si>
+  <si>
+    <t>E-ABB-N0027</t>
+  </si>
+  <si>
+    <t>E-ABB-N0029</t>
+  </si>
+  <si>
+    <t>E-ABB-N0031</t>
+  </si>
+  <si>
+    <t>E-ABB-N0033</t>
+  </si>
+  <si>
+    <t>E-ABB-N0035</t>
+  </si>
+  <si>
+    <t>E-ABB-N0037</t>
+  </si>
+  <si>
+    <t>E-ABB-N0039</t>
+  </si>
+  <si>
+    <t>E-ABB-N0041</t>
+  </si>
+  <si>
+    <t>E-ABB-N0043</t>
+  </si>
+  <si>
+    <t>E-ABB-N0045</t>
+  </si>
+  <si>
+    <t>E-ABB-N0047</t>
+  </si>
+  <si>
+    <t>E-ABB-N0054</t>
+  </si>
+  <si>
+    <t>E-AMA-N0005</t>
+  </si>
+  <si>
+    <t>E-AMA-N0006</t>
+  </si>
+  <si>
+    <t>E-AMA-N0021</t>
+  </si>
+  <si>
+    <t>E-AMA-N0023</t>
+  </si>
+  <si>
+    <t>E-AMA-N0027</t>
+  </si>
+  <si>
+    <t>E-AM2-N0001</t>
+  </si>
+  <si>
+    <t>E-AM2-N0003</t>
+  </si>
+  <si>
+    <t>E-AM2-N0005</t>
+  </si>
+  <si>
+    <t>E-ACR-N0003</t>
+  </si>
+  <si>
+    <t>E-ACR-N0005</t>
+  </si>
+  <si>
+    <t>E-ACR-N0007</t>
+  </si>
+  <si>
+    <t>E-ACR-N0014</t>
+  </si>
+  <si>
+    <t>E-AXN-N0001</t>
+  </si>
+  <si>
+    <t>E-AZT-N0001</t>
+  </si>
+  <si>
+    <t>E-AZT-N0003</t>
+  </si>
+  <si>
+    <t>E-AZT-N0005</t>
+  </si>
+  <si>
+    <t>E-AZT-N0007</t>
+  </si>
+  <si>
+    <t>E-AZT-N0011</t>
+  </si>
+  <si>
+    <t>E-AZT-N0013</t>
+  </si>
+  <si>
+    <t>E-AZT-N0017</t>
+  </si>
+  <si>
+    <t>E-AZT-N0019</t>
+  </si>
+  <si>
+    <t>E-AZT-N0021</t>
+  </si>
+  <si>
+    <t>E-AZT-N0025</t>
+  </si>
+  <si>
+    <t>E-AZT-N0027</t>
+  </si>
+  <si>
+    <t>E-AZT-N0029</t>
+  </si>
+  <si>
+    <t>E-AZT-N0055</t>
+  </si>
+  <si>
+    <t>E-AZT-N0057</t>
+  </si>
+  <si>
+    <t>E-BAT-N0011</t>
+  </si>
+  <si>
+    <t>E-ICA-N0001</t>
+  </si>
+  <si>
+    <t>E-ICA-N0003</t>
+  </si>
+  <si>
+    <t>E-ICA-N0005</t>
+  </si>
+  <si>
+    <t>E-ICA-N0007</t>
+  </si>
+  <si>
+    <t>E-ICA-N0009</t>
+  </si>
+  <si>
+    <t>E-ICA-N0011</t>
+  </si>
+  <si>
+    <t>E-ICA-N0013</t>
+  </si>
+  <si>
+    <t>E-ICA-N0015</t>
+  </si>
+  <si>
+    <t>E-ICA-N0017</t>
+  </si>
+  <si>
+    <t>E-ICA-N0019</t>
+  </si>
+  <si>
+    <t>E-ICA-N0021</t>
+  </si>
+  <si>
+    <t>E-ICA-N0023</t>
+  </si>
+  <si>
+    <t>E-ICA-N0028</t>
+  </si>
+  <si>
+    <t>E-ICA-N0029</t>
+  </si>
+  <si>
+    <t>E-CLT-N0001</t>
+  </si>
+  <si>
+    <t>E-CLT-N0003</t>
+  </si>
+  <si>
+    <t>E-CLT-N0005</t>
+  </si>
+  <si>
+    <t>E-CLT-N0007</t>
+  </si>
+  <si>
+    <t>E-CLT-N0009</t>
+  </si>
+  <si>
+    <t>E-CLT-N0011</t>
+  </si>
+  <si>
+    <t>E-CLT-N0013</t>
+  </si>
+  <si>
+    <t>E-CLT-N0015</t>
+  </si>
+  <si>
+    <t>E-CLT-N0017</t>
+  </si>
+  <si>
+    <t>E-CLT-N0019</t>
+  </si>
+  <si>
+    <t>E-CLT-N0021</t>
+  </si>
+  <si>
+    <t>E-CLT-N0023</t>
+  </si>
+  <si>
+    <t>E-CLT-N0025</t>
+  </si>
+  <si>
+    <t>E-CLT-N0027</t>
+  </si>
+  <si>
+    <t>E-CLT-N0029</t>
+  </si>
+  <si>
+    <t>E-CLT-N0031</t>
+  </si>
+  <si>
+    <t>E-CLT-N0033</t>
+  </si>
+  <si>
+    <t>E-CLT-N0035</t>
+  </si>
+  <si>
+    <t>E-CLT-N0037</t>
+  </si>
+  <si>
+    <t>E-CLT-N0039</t>
+  </si>
+  <si>
+    <t>E-CLT-N0041</t>
+  </si>
+  <si>
+    <t>E-CLT-N0043</t>
+  </si>
+  <si>
+    <t>E-CLT-N0045</t>
+  </si>
+  <si>
+    <t>E-CLT-N0047</t>
+  </si>
+  <si>
+    <t>E-CLT-N0057</t>
+  </si>
+  <si>
+    <t>E-CLT-N0059</t>
+  </si>
+  <si>
+    <t>E-ESC-N0001</t>
+  </si>
+  <si>
+    <t>E-ESC-N0003</t>
+  </si>
+  <si>
+    <t>E-ESC-N0005</t>
+  </si>
+  <si>
+    <t>E-ESC-N0007</t>
+  </si>
+  <si>
+    <t>E-DAW-N0001</t>
+  </si>
+  <si>
+    <t>E-DAW-N0003</t>
+  </si>
+  <si>
+    <t>E-DAW-N0004</t>
+  </si>
+  <si>
+    <t>E-DAW-N0005</t>
+  </si>
+  <si>
+    <t>E-DAW-N0012</t>
+  </si>
+  <si>
+    <t>E-DAW-N0025</t>
+  </si>
+  <si>
+    <t>E-DKM-N0003</t>
+  </si>
+  <si>
+    <t>E-DKM-N0005</t>
+  </si>
+  <si>
+    <t>E-DKM-N0007</t>
+  </si>
+  <si>
+    <t>E-DKM-N0009</t>
+  </si>
+  <si>
+    <t>E-DKM-N0011</t>
+  </si>
+  <si>
+    <t>E-DKM-N0013</t>
+  </si>
+  <si>
+    <t>E-DKM-N0017</t>
+  </si>
+  <si>
+    <t>E-FOR-N0001</t>
+  </si>
+  <si>
+    <t>E-FOR-N0003</t>
+  </si>
+  <si>
+    <t>E-FOR-N0007</t>
+  </si>
+  <si>
+    <t>E-GFM-N0007</t>
+  </si>
+  <si>
+    <t>E-GFM-N0009</t>
+  </si>
+  <si>
+    <t>E-GFM-N0015</t>
+  </si>
+  <si>
+    <t>E-GFM-N0041</t>
+  </si>
+  <si>
+    <t>E-GFM-N0044</t>
+  </si>
+  <si>
+    <t>E-HAM-N0001</t>
+  </si>
+  <si>
+    <t>E-HAM-N0002</t>
+  </si>
+  <si>
+    <t>E-HAM-N0003</t>
+  </si>
+  <si>
+    <t>E-HAM-N0004</t>
+  </si>
+  <si>
+    <t>E-HAM-N0005</t>
+  </si>
+  <si>
+    <t>E-HAM-N0006</t>
+  </si>
+  <si>
+    <t>E-HAM-N0029</t>
+  </si>
+  <si>
+    <t>E-IAC-N0001</t>
+  </si>
+  <si>
+    <t>E-IAC-N0005</t>
+  </si>
+  <si>
+    <t>E-IAC-N0008</t>
+  </si>
+  <si>
+    <t>E-IAC-N0009</t>
+  </si>
+  <si>
+    <t>E-IAC-N0012</t>
+  </si>
+  <si>
+    <t>E-IAC-N0013</t>
+  </si>
+  <si>
+    <t>E-IAC-N0016</t>
+  </si>
+  <si>
+    <t>E-IAC-N0017</t>
+  </si>
+  <si>
+    <t>E-IAC-N0049</t>
+  </si>
+  <si>
+    <t>E-IAC-N0058</t>
+  </si>
+  <si>
+    <t>E-ISC-N0001</t>
+  </si>
+  <si>
+    <t>E-ISC-N0002</t>
+  </si>
+  <si>
+    <t>E-ISC-N0003</t>
+  </si>
+  <si>
+    <t>E-ISC-N0004</t>
+  </si>
+  <si>
+    <t>E-ISC-N0005</t>
+  </si>
+  <si>
+    <t>E-ISC-N0006</t>
+  </si>
+  <si>
+    <t>E-ISC-N0007</t>
+  </si>
+  <si>
+    <t>E-ISC-N0008</t>
+  </si>
+  <si>
+    <t>E-ISC-N0023</t>
+  </si>
+  <si>
+    <t>E-KSA-N0001</t>
+  </si>
+  <si>
+    <t>E-KSA-N0002</t>
+  </si>
+  <si>
+    <t>E-KSA-N0003</t>
+  </si>
+  <si>
+    <t>E-KSA-N0004</t>
+  </si>
+  <si>
+    <t>E-KSA-N0009</t>
+  </si>
+  <si>
+    <t>E-KSA-N0011</t>
+  </si>
+  <si>
+    <t>E-KSA-N0013</t>
+  </si>
+  <si>
+    <t>E-KSA-N0015</t>
+  </si>
+  <si>
+    <t>E-KSA-N0017</t>
+  </si>
+  <si>
+    <t>E-KSA-N0019</t>
+  </si>
+  <si>
+    <t>E-KSA-N0021</t>
+  </si>
+  <si>
+    <t>E-KEP-N0001</t>
+  </si>
+  <si>
+    <t>E-KEP-N0003</t>
+  </si>
+  <si>
+    <t>E-KEP-N0005</t>
+  </si>
+  <si>
+    <t>E-KEP-N0009</t>
+  </si>
+  <si>
+    <t>E-KEP-N0015</t>
+  </si>
+  <si>
+    <t>E-KEP-N0059</t>
+  </si>
+  <si>
+    <t>E-KEP-N0061</t>
+  </si>
+  <si>
+    <t>E-LIE-N0001</t>
+  </si>
+  <si>
+    <t>E-LIE-N0002</t>
+  </si>
+  <si>
+    <t>E-LIE-N0005</t>
+  </si>
+  <si>
+    <t>E-LIS-N0001</t>
+  </si>
+  <si>
+    <t>E-LIX-N0001</t>
+  </si>
+  <si>
+    <t>E-LIX-N0009</t>
+  </si>
+  <si>
+    <t>E-LIX-N0011</t>
+  </si>
+  <si>
+    <t>E-LIX-N0013</t>
+  </si>
+  <si>
+    <t>E-LIX-N0015</t>
+  </si>
+  <si>
+    <t>E-LIX-N0017</t>
+  </si>
+  <si>
+    <t>E-LIX-N0019</t>
+  </si>
+  <si>
+    <t>E-LIX-N0021</t>
+  </si>
+  <si>
+    <t>E-LIX-N0023</t>
+  </si>
+  <si>
+    <t>E-LIX-N0025</t>
+  </si>
+  <si>
+    <t>E-LIX-N0027</t>
+  </si>
+  <si>
+    <t>E-LIX-N0031</t>
+  </si>
+  <si>
+    <t>E-LIX-N0033</t>
+  </si>
+  <si>
+    <t>E-LIX-N0035</t>
+  </si>
+  <si>
+    <t>E-LIX-N0037</t>
+  </si>
+  <si>
+    <t>E-LIX-N0039</t>
+  </si>
+  <si>
+    <t>E-LIX-N0041</t>
+  </si>
+  <si>
+    <t>E-LIX-N0043</t>
+  </si>
+  <si>
+    <t>E-LIX-N0045</t>
+  </si>
+  <si>
+    <t>E-LIX-N0047</t>
+  </si>
+  <si>
+    <t>E-LIX-N0049</t>
+  </si>
+  <si>
+    <t>E-LIX-N0051</t>
+  </si>
+  <si>
+    <t>E-LIX-N0053</t>
+  </si>
+  <si>
+    <t>E-LIX-N0055</t>
+  </si>
+  <si>
+    <t>E-LIX-N0057</t>
+  </si>
+  <si>
+    <t>E-LIX-N0059</t>
+  </si>
+  <si>
+    <t>E-LIX-N0061</t>
+  </si>
+  <si>
+    <t>E-LIX-N0065</t>
+  </si>
+  <si>
+    <t>E-MFG-N0001</t>
+  </si>
+  <si>
+    <t>E-MFG-N0005</t>
+  </si>
+  <si>
+    <t>E-MFG-N0007</t>
+  </si>
+  <si>
+    <t>E-MFG-N0009</t>
+  </si>
+  <si>
+    <t>E-MOE-N0009</t>
+  </si>
+  <si>
+    <t>E-NPS-N0001</t>
+  </si>
+  <si>
+    <t>E-NPS-N0003</t>
+  </si>
+  <si>
+    <t>E-NPS-N0005</t>
+  </si>
+  <si>
+    <t>E-NPS-N0007</t>
+  </si>
+  <si>
+    <t>E-CMD-N0001</t>
+  </si>
+  <si>
+    <t>E-CMD-N0011</t>
+  </si>
+  <si>
+    <t>E-CMD-N0013</t>
+  </si>
+  <si>
+    <t>E-CMD-N0015</t>
+  </si>
+  <si>
+    <t>E-CMD-N0036</t>
+  </si>
+  <si>
+    <t>E-CMD-N0048</t>
+  </si>
+  <si>
+    <t>E-CMD-N0052</t>
+  </si>
+  <si>
+    <t>E-CMD-N0054</t>
+  </si>
+  <si>
+    <t>E-CMD-N0059</t>
+  </si>
+  <si>
+    <t>E-CMD-N0062</t>
+  </si>
+  <si>
+    <t>E-CMD-N0063</t>
+  </si>
+  <si>
+    <t>E-CMD-N0064</t>
+  </si>
+  <si>
+    <t>E-CMD-N0066</t>
+  </si>
+  <si>
+    <t>E-COD-N0001</t>
+  </si>
+  <si>
+    <t>E-COD-N0003</t>
+  </si>
+  <si>
+    <t>E-COD-N0007</t>
+  </si>
+  <si>
+    <t>E-COD-N0011</t>
+  </si>
+  <si>
+    <t>E-COD-N0013</t>
+  </si>
+  <si>
+    <t>E-COD-N0015</t>
+  </si>
+  <si>
+    <t>E-COD-N0021</t>
+  </si>
+  <si>
+    <t>E-COD-N0034</t>
+  </si>
+  <si>
+    <t>E-NLA-N0001</t>
+  </si>
+  <si>
+    <t>E-USM-N0001</t>
+  </si>
+  <si>
+    <t>E-USM-N0003</t>
+  </si>
+  <si>
+    <t>E-USM-N0005</t>
+  </si>
+  <si>
+    <t>E-USM-N0007</t>
+  </si>
+  <si>
+    <t>E-USM-N0026</t>
+  </si>
+  <si>
+    <t>E-USM-N0048</t>
+  </si>
+  <si>
+    <t>E-OWE-N0001</t>
+  </si>
+  <si>
+    <t>E-OWE-N0002</t>
+  </si>
+  <si>
+    <t>E-OWE-N0003</t>
+  </si>
+  <si>
+    <t>E-OWE-N0004</t>
+  </si>
+  <si>
+    <t>E-OWE-N0005</t>
+  </si>
+  <si>
+    <t>E-OWE-N0019</t>
+  </si>
+  <si>
+    <t>E-OWE-N0024</t>
+  </si>
+  <si>
+    <t>E-PAL-N0006</t>
+  </si>
+  <si>
+    <t>E-PRE-N0001</t>
+  </si>
+  <si>
+    <t>E-PRE-N0009</t>
+  </si>
+  <si>
+    <t>E-PRE-N0012</t>
+  </si>
+  <si>
+    <t>E-PRE-N0014</t>
+  </si>
+  <si>
+    <t>E-PRE-N0016</t>
+  </si>
+  <si>
+    <t>E-PLA-N0001</t>
+  </si>
+  <si>
+    <t>E-RAG-N0003</t>
+  </si>
+  <si>
+    <t>E-RAG-N0004</t>
+  </si>
+  <si>
+    <t>E-RAG-N0005</t>
+  </si>
+  <si>
+    <t>E-RAG-N0027</t>
+  </si>
+  <si>
+    <t>E-RAG-N0029</t>
+  </si>
+  <si>
+    <t>E-RAG-N0032</t>
+  </si>
+  <si>
+    <t>E-SPA-N0001</t>
+  </si>
+  <si>
+    <t>E-SPA-N0003</t>
+  </si>
+  <si>
+    <t>E-SPA-N0005</t>
+  </si>
+  <si>
+    <t>E-SPA-N0007</t>
+  </si>
+  <si>
+    <t>E-SPA-N0013</t>
+  </si>
+  <si>
+    <t>E-SPA-N0015</t>
+  </si>
+  <si>
+    <t>E-SPA-N0016</t>
+  </si>
+  <si>
+    <t>E-SWS-N0001</t>
+  </si>
+  <si>
+    <t>E-SIE-N0003</t>
+  </si>
+  <si>
+    <t>E-SIE-N0004</t>
+  </si>
+  <si>
+    <t>E-SIE-N0007</t>
+  </si>
+  <si>
+    <t>E-SIE-N0009</t>
+  </si>
+  <si>
+    <t>E-SIE-N0012</t>
+  </si>
+  <si>
+    <t>E-SIE-N0013</t>
+  </si>
+  <si>
+    <t>E-SIE-N0015</t>
+  </si>
+  <si>
+    <t>E-SIE-N0017</t>
+  </si>
+  <si>
+    <t>E-SIE-N0022</t>
+  </si>
+  <si>
+    <t>E-SIE-N0024</t>
+  </si>
+  <si>
+    <t>E-SIE-N0053</t>
+  </si>
+  <si>
+    <t>E-SIE-N0055</t>
+  </si>
+  <si>
+    <t>E-SIE-N0057</t>
+  </si>
+  <si>
+    <t>E-SIE-N0064</t>
+  </si>
+  <si>
+    <t>E-SIE-N0066</t>
+  </si>
+  <si>
+    <t>E-SIE-N0068</t>
+  </si>
+  <si>
+    <t>E-SIE-N0072</t>
+  </si>
+  <si>
+    <t>E-SIE-N0076</t>
+  </si>
+  <si>
+    <t>E-SIE-N0079</t>
+  </si>
+  <si>
+    <t>E-SIE-N0080</t>
+  </si>
+  <si>
+    <t>E-SIE-N0090</t>
+  </si>
+  <si>
+    <t>E-SIE-N0091</t>
+  </si>
+  <si>
+    <t>E-SIE-N0092</t>
+  </si>
+  <si>
+    <t>E-SIE-N0118</t>
+  </si>
+  <si>
+    <t>E-SIE-N0120</t>
+  </si>
+  <si>
+    <t>E-SIE-N0143</t>
+  </si>
+  <si>
+    <t>E-SIE-N0152</t>
+  </si>
+  <si>
+    <t>E-SIE-N0158</t>
+  </si>
+  <si>
+    <t>E-SIE-N0207</t>
+  </si>
+  <si>
+    <t>E-SIE-N0220</t>
+  </si>
+  <si>
+    <t>E-SIE-N0223</t>
+  </si>
+  <si>
+    <t>E-SIE-N0231</t>
+  </si>
+  <si>
+    <t>E-SIE-N0237</t>
+  </si>
+  <si>
+    <t>E-SIE-N0239</t>
+  </si>
+  <si>
+    <t>E-SIE-N0241</t>
+  </si>
+  <si>
+    <t>E-SIE-N0243</t>
+  </si>
+  <si>
+    <t>E-SIE-N0245</t>
+  </si>
+  <si>
+    <t>E-SIE-N0247</t>
+  </si>
+  <si>
+    <t>E-SIE-N0249</t>
+  </si>
+  <si>
+    <t>E-SIE-N0250</t>
+  </si>
+  <si>
+    <t>E-SIE-N0252</t>
+  </si>
+  <si>
+    <t>E-SIE-N0253</t>
+  </si>
+  <si>
+    <t>E-SIE-N0254</t>
+  </si>
+  <si>
+    <t>E-SIE-N0255</t>
+  </si>
+  <si>
+    <t>E-SIE-N0256</t>
+  </si>
+  <si>
+    <t>E-SIE-N0257</t>
+  </si>
+  <si>
+    <t>E-SIE-N0258</t>
+  </si>
+  <si>
+    <t>E-SIE-N0259</t>
+  </si>
+  <si>
+    <t>E-SIE-N0260</t>
+  </si>
+  <si>
+    <t>E-SIE-N0261</t>
+  </si>
+  <si>
+    <t>E-SIE-N0262</t>
+  </si>
+  <si>
+    <t>E-SIE-N0263</t>
+  </si>
+  <si>
+    <t>E-SIE-N0265</t>
+  </si>
+  <si>
+    <t>E-SIE-N0267</t>
+  </si>
+  <si>
+    <t>E-SIE-N0268</t>
+  </si>
+  <si>
+    <t>E-SIE-N0272</t>
+  </si>
+  <si>
+    <t>E-SIE-N0290</t>
+  </si>
+  <si>
+    <t>E-SIE-N0292</t>
+  </si>
+  <si>
+    <t>E-SIE-N0295</t>
+  </si>
+  <si>
+    <t>E-SIE-N0298</t>
+  </si>
+  <si>
+    <t>E-SIE-N0300</t>
+  </si>
+  <si>
+    <t>E-SIE-N0302</t>
+  </si>
+  <si>
+    <t>E-SIE-N0304</t>
+  </si>
+  <si>
+    <t>E-SIE-N0307</t>
+  </si>
+  <si>
+    <t>E-SIE-N0309</t>
+  </si>
+  <si>
+    <t>E-SIE-N0314</t>
+  </si>
+  <si>
+    <t>E-SIE-N0317</t>
+  </si>
+  <si>
+    <t>E-SIE-N0321</t>
+  </si>
+  <si>
+    <t>E-SIE-N0323</t>
+  </si>
+  <si>
+    <t>E-SIE-N0324</t>
+  </si>
+  <si>
+    <t>E-SIE-N0328</t>
+  </si>
+  <si>
+    <t>E-SIE-N0330</t>
+  </si>
+  <si>
+    <t>E-SIE-N0338</t>
+  </si>
+  <si>
+    <t>E-SIE-N0339</t>
+  </si>
+  <si>
+    <t>E-SIE-N0340</t>
+  </si>
+  <si>
+    <t>E-SIE-N0341</t>
+  </si>
+  <si>
+    <t>E-TAU-N0001</t>
+  </si>
+  <si>
+    <t>E-TAU-N0002</t>
+  </si>
+  <si>
+    <t>E-ETR-N0001</t>
+  </si>
+  <si>
+    <t>E-ETR-N0002</t>
+  </si>
+  <si>
+    <t>E-ETR-N0006</t>
+  </si>
+  <si>
+    <t>E-ETR-N0007</t>
+  </si>
+  <si>
+    <t>E-ETR-N0008</t>
+  </si>
+  <si>
+    <t>E-ETR-N0009</t>
+  </si>
+  <si>
+    <t>E-ETR-N0011</t>
+  </si>
+  <si>
+    <t>E-ETR-N0013</t>
+  </si>
+  <si>
+    <t>E-ETR-N0018</t>
+  </si>
+  <si>
+    <t>E-ETR-N0031</t>
+  </si>
+  <si>
+    <t>E-UDM-N0001</t>
+  </si>
+  <si>
+    <t>E-UDM-N0004</t>
+  </si>
+  <si>
+    <t>E-UDM-N0007</t>
+  </si>
+  <si>
+    <t>E-UDM-N0009</t>
+  </si>
+  <si>
+    <t>E-UDM-N0010</t>
+  </si>
+  <si>
+    <t>E-UDM-N0013</t>
+  </si>
+  <si>
+    <t>E-UDM-N0015</t>
+  </si>
+  <si>
+    <t>E-UDM-N0017</t>
+  </si>
+  <si>
+    <t>E-UDM-N0019</t>
+  </si>
+  <si>
+    <t>E-VEO-N0001</t>
+  </si>
+  <si>
+    <t>E-VEO-N0003</t>
+  </si>
+  <si>
+    <t>E-VEO-N0005</t>
+  </si>
+  <si>
+    <t>E-VER-N0023</t>
+  </si>
+  <si>
+    <t>E-VER-N0025</t>
+  </si>
+  <si>
+    <t>E-VER-N0047</t>
+  </si>
+  <si>
+    <t>E-VER-N0051</t>
+  </si>
+  <si>
+    <t>E-VER-N0053</t>
+  </si>
+  <si>
+    <t>E-VER-N0055</t>
+  </si>
+  <si>
+    <t>E-VER-N0057</t>
+  </si>
+  <si>
+    <t>E-VER-N0059</t>
+  </si>
+  <si>
+    <t>E-VER-N0061</t>
+  </si>
+  <si>
+    <t>E-VER-N0063</t>
+  </si>
+  <si>
+    <t>E-VER-N0065</t>
+  </si>
+  <si>
+    <t>E-VER-N0085</t>
+  </si>
+  <si>
+    <t>E-VER-N0089</t>
+  </si>
+  <si>
+    <t>E-VER-N0108</t>
+  </si>
+  <si>
+    <t>E-VER-N0110</t>
+  </si>
+  <si>
+    <t>E-VIA-N0001</t>
+  </si>
+  <si>
+    <t>E-VIA-N0003</t>
+  </si>
+  <si>
+    <t>E-VIA-N0005</t>
+  </si>
+  <si>
+    <t>E-VIA-N0009</t>
+  </si>
+  <si>
+    <t>E-WEL-N0002</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +2815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1666,60 +2823,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2054,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2068,7 +3226,7 @@
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,8 +3254,10 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2125,8 +3285,9 @@
       <c r="I2" s="5">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2154,8 +3315,9 @@
       <c r="I3" s="5">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2183,8 +3345,9 @@
       <c r="I4" s="5">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2212,8 +3375,9 @@
       <c r="I5" s="5">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2241,8 +3405,9 @@
       <c r="I6" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2270,8 +3435,9 @@
       <c r="I7" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2299,8 +3465,9 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2328,8 +3495,9 @@
       <c r="I9" s="5">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2357,8 +3525,9 @@
       <c r="I10" s="5">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2386,8 +3555,9 @@
       <c r="I11" s="5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2415,8 +3585,9 @@
       <c r="I12" s="5">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,8 +3615,9 @@
       <c r="I13" s="5">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -2473,8 +3645,9 @@
       <c r="I14" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -2502,8 +3675,9 @@
       <c r="I15" s="5">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" s="57"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -2531,8 +3705,9 @@
       <c r="I16" s="5">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -2560,8 +3735,9 @@
       <c r="I17" s="5">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2589,8 +3765,9 @@
       <c r="I18" s="5">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -2618,8 +3795,9 @@
       <c r="I19" s="5">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2647,8 +3825,9 @@
       <c r="I20" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" s="57"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -2676,8 +3855,9 @@
       <c r="I21" s="5">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -2705,8 +3885,9 @@
       <c r="I22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -2734,8 +3915,9 @@
       <c r="I23" s="5">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -2763,8 +3945,9 @@
       <c r="I24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2792,8 +3975,9 @@
       <c r="I25" s="5">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -2821,8 +4005,9 @@
       <c r="I26" s="5">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -2850,8 +4035,9 @@
       <c r="I27" s="5">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -2879,8 +4065,9 @@
       <c r="I28" s="5">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
@@ -2908,8 +4095,9 @@
       <c r="I29" s="5">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -2937,8 +4125,9 @@
       <c r="I30" s="5">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
@@ -2966,8 +4155,9 @@
       <c r="I31" s="5">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="3" t="s">
         <v>39</v>
       </c>
@@ -2995,8 +4185,9 @@
       <c r="I32" s="5">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -3024,8 +4215,9 @@
       <c r="I33" s="5">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -3053,8 +4245,9 @@
       <c r="I34" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -3082,8 +4275,9 @@
       <c r="I35" s="5">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -3111,8 +4305,9 @@
       <c r="I36" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -3140,8 +4335,9 @@
       <c r="I37" s="5">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -3169,8 +4365,9 @@
       <c r="I38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
@@ -3198,8 +4395,9 @@
       <c r="I39" s="5">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="K39" s="57"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="3" t="s">
         <v>47</v>
       </c>
@@ -3227,8 +4425,9 @@
       <c r="I40" s="5">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="K40" s="57"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -3256,8 +4455,9 @@
       <c r="I41" s="5">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K41" s="57"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="3" t="s">
         <v>49</v>
       </c>
@@ -3285,8 +4485,9 @@
       <c r="I42" s="5">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="K42" s="57"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="3" t="s">
         <v>50</v>
       </c>
@@ -3314,8 +4515,9 @@
       <c r="I43" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" s="57"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="F44" s="3">
         <v>0</v>
       </c>
@@ -3329,17 +4531,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="H45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="H46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="H47">
         <v>0</v>
       </c>
@@ -3353,8 +4555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2FE43D-D9FD-4E7D-943A-2B99773C69E9}">
   <dimension ref="A1:F448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E448"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21287,4 +22489,8069 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59198C2-DBB7-4782-8F5F-38855965A5EB}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1047863"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0.96109999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.94020000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.98519999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.96950000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.92210000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0.88839999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.86280000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.97299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0.85170000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0.65739999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0.88270000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>0.97170000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0.9879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0.86119999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.91759999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0.96779999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>0.86729999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>427</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>0.98429999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0.86709999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0.90910000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>0.99880000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.83109999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0.81059999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>76</v>
+      </c>
+      <c r="C38">
+        <v>0.9133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0.96040000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>428</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>0.79349999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>0.80549999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>0.99139999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F54FD1-5576-4F0C-86F1-1388BA23D0FA}">
+  <dimension ref="A1:F377"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M333" sqref="M333"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C2">
+        <v>154</v>
+      </c>
+      <c r="D2">
+        <v>154</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3">
+        <v>323</v>
+      </c>
+      <c r="D3">
+        <v>323</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4">
+        <v>220</v>
+      </c>
+      <c r="D4">
+        <v>204</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4" s="57">
+        <v>0.92730000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5">
+        <v>294</v>
+      </c>
+      <c r="D5">
+        <v>281</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5" s="57">
+        <v>0.95579999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6">
+        <v>260</v>
+      </c>
+      <c r="D6">
+        <v>246</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0.94620000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7">
+        <v>228</v>
+      </c>
+      <c r="D7">
+        <v>224</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="57">
+        <v>0.98250000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8">
+        <v>361</v>
+      </c>
+      <c r="D8">
+        <v>350</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8" s="57">
+        <v>0.96950000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9">
+        <v>340</v>
+      </c>
+      <c r="D9">
+        <v>319</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9" s="57">
+        <v>0.93820000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10">
+        <v>308</v>
+      </c>
+      <c r="D10">
+        <v>240</v>
+      </c>
+      <c r="E10">
+        <v>68</v>
+      </c>
+      <c r="F10" s="57">
+        <v>0.7792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12">
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13">
+        <v>220</v>
+      </c>
+      <c r="D13">
+        <v>173</v>
+      </c>
+      <c r="E13">
+        <v>47</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0.78639999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14">
+        <v>252</v>
+      </c>
+      <c r="D14">
+        <v>252</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15">
+        <v>260</v>
+      </c>
+      <c r="D15">
+        <v>260</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16">
+        <v>280</v>
+      </c>
+      <c r="D16">
+        <v>280</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C17">
+        <v>220</v>
+      </c>
+      <c r="D17">
+        <v>208</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0.94550000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>449</v>
+      </c>
+      <c r="C18">
+        <v>220</v>
+      </c>
+      <c r="D18">
+        <v>220</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19">
+        <v>380</v>
+      </c>
+      <c r="D19">
+        <v>379</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0.99739999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20">
+        <v>345</v>
+      </c>
+      <c r="D20">
+        <v>345</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21">
+        <v>396</v>
+      </c>
+      <c r="D21">
+        <v>378</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21" s="57">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>453</v>
+      </c>
+      <c r="C22">
+        <v>546</v>
+      </c>
+      <c r="D22">
+        <v>525</v>
+      </c>
+      <c r="E22">
+        <v>21</v>
+      </c>
+      <c r="F22" s="57">
+        <v>0.96150000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>455</v>
+      </c>
+      <c r="C24">
+        <v>286</v>
+      </c>
+      <c r="D24">
+        <v>286</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25">
+        <v>280</v>
+      </c>
+      <c r="D25">
+        <v>258</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25" s="57">
+        <v>0.9214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C26">
+        <v>567</v>
+      </c>
+      <c r="D26">
+        <v>484</v>
+      </c>
+      <c r="E26">
+        <v>83</v>
+      </c>
+      <c r="F26" s="57">
+        <v>0.85360000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>458</v>
+      </c>
+      <c r="C27">
+        <v>756</v>
+      </c>
+      <c r="D27">
+        <v>700</v>
+      </c>
+      <c r="E27">
+        <v>56</v>
+      </c>
+      <c r="F27" s="57">
+        <v>0.92589999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C28">
+        <v>432</v>
+      </c>
+      <c r="D28">
+        <v>432</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29">
+        <v>648</v>
+      </c>
+      <c r="D29">
+        <v>648</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C30">
+        <v>672</v>
+      </c>
+      <c r="D30">
+        <v>648</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30" s="57">
+        <v>0.96430000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31">
+        <v>575</v>
+      </c>
+      <c r="D31">
+        <v>570</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31" s="57">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>463</v>
+      </c>
+      <c r="C32">
+        <v>200</v>
+      </c>
+      <c r="D32">
+        <v>198</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="57">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33">
+        <v>285</v>
+      </c>
+      <c r="D33">
+        <v>285</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>465</v>
+      </c>
+      <c r="C34">
+        <v>651</v>
+      </c>
+      <c r="D34">
+        <v>578</v>
+      </c>
+      <c r="E34">
+        <v>73</v>
+      </c>
+      <c r="F34" s="57">
+        <v>0.88790000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>466</v>
+      </c>
+      <c r="C35">
+        <v>306</v>
+      </c>
+      <c r="D35">
+        <v>306</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>467</v>
+      </c>
+      <c r="C36">
+        <v>680</v>
+      </c>
+      <c r="D36">
+        <v>627</v>
+      </c>
+      <c r="E36">
+        <v>53</v>
+      </c>
+      <c r="F36" s="57">
+        <v>0.92210000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C37">
+        <v>165</v>
+      </c>
+      <c r="D37">
+        <v>165</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>469</v>
+      </c>
+      <c r="C38">
+        <v>340</v>
+      </c>
+      <c r="D38">
+        <v>308</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38" s="57">
+        <v>0.90590000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>470</v>
+      </c>
+      <c r="C39">
+        <v>208</v>
+      </c>
+      <c r="D39">
+        <v>208</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>471</v>
+      </c>
+      <c r="C40">
+        <v>225</v>
+      </c>
+      <c r="D40">
+        <v>223</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="57">
+        <v>0.99109999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>472</v>
+      </c>
+      <c r="C41">
+        <v>204</v>
+      </c>
+      <c r="D41">
+        <v>204</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>473</v>
+      </c>
+      <c r="C42">
+        <v>190</v>
+      </c>
+      <c r="D42">
+        <v>190</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>474</v>
+      </c>
+      <c r="C43">
+        <v>196</v>
+      </c>
+      <c r="D43">
+        <v>174</v>
+      </c>
+      <c r="E43">
+        <v>22</v>
+      </c>
+      <c r="F43" s="57">
+        <v>0.88780000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C44">
+        <v>391</v>
+      </c>
+      <c r="D44">
+        <v>327</v>
+      </c>
+      <c r="E44">
+        <v>64</v>
+      </c>
+      <c r="F44" s="57">
+        <v>0.83630000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>476</v>
+      </c>
+      <c r="C45">
+        <v>156</v>
+      </c>
+      <c r="D45">
+        <v>153</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" s="57">
+        <v>0.98080000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>477</v>
+      </c>
+      <c r="C46">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>127</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="57">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>478</v>
+      </c>
+      <c r="C47">
+        <v>408</v>
+      </c>
+      <c r="D47">
+        <v>408</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>479</v>
+      </c>
+      <c r="C48">
+        <v>280</v>
+      </c>
+      <c r="D48">
+        <v>256</v>
+      </c>
+      <c r="E48">
+        <v>24</v>
+      </c>
+      <c r="F48" s="57">
+        <v>0.9143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>480</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>481</v>
+      </c>
+      <c r="C50">
+        <v>255</v>
+      </c>
+      <c r="D50">
+        <v>237</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50" s="57">
+        <v>0.9294</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C51">
+        <v>159</v>
+      </c>
+      <c r="D51">
+        <v>159</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>483</v>
+      </c>
+      <c r="C52">
+        <v>112</v>
+      </c>
+      <c r="D52">
+        <v>104</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52" s="57">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>484</v>
+      </c>
+      <c r="C53">
+        <v>153</v>
+      </c>
+      <c r="D53">
+        <v>140</v>
+      </c>
+      <c r="E53">
+        <v>13</v>
+      </c>
+      <c r="F53" s="57">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>485</v>
+      </c>
+      <c r="C54">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>168</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="57">
+        <v>0.99409999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55">
+        <v>187</v>
+      </c>
+      <c r="D55">
+        <v>187</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>487</v>
+      </c>
+      <c r="C56">
+        <v>240</v>
+      </c>
+      <c r="D56">
+        <v>186</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+      <c r="F56" s="57">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>488</v>
+      </c>
+      <c r="C57">
+        <v>240</v>
+      </c>
+      <c r="D57">
+        <v>231</v>
+      </c>
+      <c r="E57">
+        <v>9</v>
+      </c>
+      <c r="F57" s="57">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>489</v>
+      </c>
+      <c r="C58">
+        <v>207</v>
+      </c>
+      <c r="D58">
+        <v>178</v>
+      </c>
+      <c r="E58">
+        <v>29</v>
+      </c>
+      <c r="F58" s="57">
+        <v>0.8599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>490</v>
+      </c>
+      <c r="C59">
+        <v>153</v>
+      </c>
+      <c r="D59">
+        <v>134</v>
+      </c>
+      <c r="E59">
+        <v>19</v>
+      </c>
+      <c r="F59" s="57">
+        <v>0.87580000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60">
+        <v>136</v>
+      </c>
+      <c r="D60">
+        <v>116</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="F60" s="57">
+        <v>0.85289999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>492</v>
+      </c>
+      <c r="C61">
+        <v>264</v>
+      </c>
+      <c r="D61">
+        <v>260</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" s="57">
+        <v>0.98480000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C62">
+        <v>189</v>
+      </c>
+      <c r="D62">
+        <v>178</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+      <c r="F62" s="57">
+        <v>0.94179999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>494</v>
+      </c>
+      <c r="C63">
+        <v>275</v>
+      </c>
+      <c r="D63">
+        <v>272</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" s="57">
+        <v>0.98909999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>495</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>496</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>497</v>
+      </c>
+      <c r="C66">
+        <v>420</v>
+      </c>
+      <c r="D66">
+        <v>377</v>
+      </c>
+      <c r="E66">
+        <v>43</v>
+      </c>
+      <c r="F66" s="57">
+        <v>0.89759999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>498</v>
+      </c>
+      <c r="C67">
+        <v>342</v>
+      </c>
+      <c r="D67">
+        <v>312</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67" s="57">
+        <v>0.9123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>499</v>
+      </c>
+      <c r="C68">
+        <v>361</v>
+      </c>
+      <c r="D68">
+        <v>361</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>500</v>
+      </c>
+      <c r="C69">
+        <v>199</v>
+      </c>
+      <c r="D69">
+        <v>174</v>
+      </c>
+      <c r="E69">
+        <v>25</v>
+      </c>
+      <c r="F69" s="57">
+        <v>0.87439999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>501</v>
+      </c>
+      <c r="C70">
+        <v>432</v>
+      </c>
+      <c r="D70">
+        <v>409</v>
+      </c>
+      <c r="E70">
+        <v>23</v>
+      </c>
+      <c r="F70" s="57">
+        <v>0.94679999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>502</v>
+      </c>
+      <c r="C71">
+        <v>320</v>
+      </c>
+      <c r="D71">
+        <v>320</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>503</v>
+      </c>
+      <c r="C72">
+        <v>277</v>
+      </c>
+      <c r="D72">
+        <v>277</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C73">
+        <v>357</v>
+      </c>
+      <c r="D73">
+        <v>331</v>
+      </c>
+      <c r="E73">
+        <v>26</v>
+      </c>
+      <c r="F73" s="57">
+        <v>0.92720000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>505</v>
+      </c>
+      <c r="C74">
+        <v>380</v>
+      </c>
+      <c r="D74">
+        <v>376</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" s="57">
+        <v>0.98950000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>506</v>
+      </c>
+      <c r="C75">
+        <v>236</v>
+      </c>
+      <c r="D75">
+        <v>227</v>
+      </c>
+      <c r="E75">
+        <v>9</v>
+      </c>
+      <c r="F75" s="57">
+        <v>0.96189999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>507</v>
+      </c>
+      <c r="C76">
+        <v>262</v>
+      </c>
+      <c r="D76">
+        <v>262</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>508</v>
+      </c>
+      <c r="C77">
+        <v>462</v>
+      </c>
+      <c r="D77">
+        <v>462</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>509</v>
+      </c>
+      <c r="C78">
+        <v>309</v>
+      </c>
+      <c r="D78">
+        <v>298</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="F78" s="57">
+        <v>0.96440000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>510</v>
+      </c>
+      <c r="C79">
+        <v>288</v>
+      </c>
+      <c r="D79">
+        <v>283</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79" s="57">
+        <v>0.98260000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>511</v>
+      </c>
+      <c r="C80">
+        <v>297</v>
+      </c>
+      <c r="D80">
+        <v>277</v>
+      </c>
+      <c r="E80">
+        <v>20</v>
+      </c>
+      <c r="F80" s="57">
+        <v>0.93269999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>512</v>
+      </c>
+      <c r="C81">
+        <v>374</v>
+      </c>
+      <c r="D81">
+        <v>349</v>
+      </c>
+      <c r="E81">
+        <v>25</v>
+      </c>
+      <c r="F81" s="57">
+        <v>0.93320000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>513</v>
+      </c>
+      <c r="C82">
+        <v>256</v>
+      </c>
+      <c r="D82">
+        <v>254</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" s="57">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>514</v>
+      </c>
+      <c r="C83">
+        <v>342</v>
+      </c>
+      <c r="D83">
+        <v>301</v>
+      </c>
+      <c r="E83">
+        <v>41</v>
+      </c>
+      <c r="F83" s="57">
+        <v>0.88009999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>515</v>
+      </c>
+      <c r="C84">
+        <v>504</v>
+      </c>
+      <c r="D84">
+        <v>483</v>
+      </c>
+      <c r="E84">
+        <v>21</v>
+      </c>
+      <c r="F84" s="57">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>516</v>
+      </c>
+      <c r="C85">
+        <v>437</v>
+      </c>
+      <c r="D85">
+        <v>437</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>517</v>
+      </c>
+      <c r="C86">
+        <v>91</v>
+      </c>
+      <c r="D86">
+        <v>91</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>518</v>
+      </c>
+      <c r="C87">
+        <v>99</v>
+      </c>
+      <c r="D87">
+        <v>95</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" s="57">
+        <v>0.95960000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>519</v>
+      </c>
+      <c r="C88">
+        <v>56</v>
+      </c>
+      <c r="D88">
+        <v>56</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>520</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>521</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>522</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>523</v>
+      </c>
+      <c r="C92">
+        <v>40</v>
+      </c>
+      <c r="D92">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>524</v>
+      </c>
+      <c r="C93">
+        <v>171</v>
+      </c>
+      <c r="D93">
+        <v>162</v>
+      </c>
+      <c r="E93">
+        <v>9</v>
+      </c>
+      <c r="F93" s="57">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>525</v>
+      </c>
+      <c r="C94">
+        <v>126</v>
+      </c>
+      <c r="D94">
+        <v>119</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94" s="57">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>526</v>
+      </c>
+      <c r="C95">
+        <v>96</v>
+      </c>
+      <c r="D95">
+        <v>96</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>527</v>
+      </c>
+      <c r="C96">
+        <v>375</v>
+      </c>
+      <c r="D96">
+        <v>369</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96" s="57">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>528</v>
+      </c>
+      <c r="C97">
+        <v>250</v>
+      </c>
+      <c r="D97">
+        <v>217</v>
+      </c>
+      <c r="E97">
+        <v>33</v>
+      </c>
+      <c r="F97" s="57">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>529</v>
+      </c>
+      <c r="C98">
+        <v>580</v>
+      </c>
+      <c r="D98">
+        <v>531</v>
+      </c>
+      <c r="E98">
+        <v>49</v>
+      </c>
+      <c r="F98" s="57">
+        <v>0.91549999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>530</v>
+      </c>
+      <c r="C99">
+        <v>375</v>
+      </c>
+      <c r="D99">
+        <v>371</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" s="57">
+        <v>0.98929999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
+        <v>531</v>
+      </c>
+      <c r="C100">
+        <v>322</v>
+      </c>
+      <c r="D100">
+        <v>311</v>
+      </c>
+      <c r="E100">
+        <v>11</v>
+      </c>
+      <c r="F100" s="57">
+        <v>0.96579999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>532</v>
+      </c>
+      <c r="C101">
+        <v>494</v>
+      </c>
+      <c r="D101">
+        <v>492</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" s="57">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>533</v>
+      </c>
+      <c r="C102">
+        <v>108</v>
+      </c>
+      <c r="D102">
+        <v>108</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>534</v>
+      </c>
+      <c r="C103">
+        <v>105</v>
+      </c>
+      <c r="D103">
+        <v>101</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103" s="57">
+        <v>0.96189999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>535</v>
+      </c>
+      <c r="C104">
+        <v>195</v>
+      </c>
+      <c r="D104">
+        <v>195</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>536</v>
+      </c>
+      <c r="C105">
+        <v>140</v>
+      </c>
+      <c r="D105">
+        <v>140</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" t="s">
+        <v>537</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>538</v>
+      </c>
+      <c r="C107">
+        <v>136</v>
+      </c>
+      <c r="D107">
+        <v>136</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>539</v>
+      </c>
+      <c r="C108">
+        <v>112</v>
+      </c>
+      <c r="D108">
+        <v>112</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" t="s">
+        <v>540</v>
+      </c>
+      <c r="C109">
+        <v>200</v>
+      </c>
+      <c r="D109">
+        <v>200</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" t="s">
+        <v>541</v>
+      </c>
+      <c r="C110">
+        <v>72</v>
+      </c>
+      <c r="D110">
+        <v>70</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" s="57">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" t="s">
+        <v>542</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" t="s">
+        <v>543</v>
+      </c>
+      <c r="C112">
+        <v>594</v>
+      </c>
+      <c r="D112">
+        <v>549</v>
+      </c>
+      <c r="E112">
+        <v>45</v>
+      </c>
+      <c r="F112" s="57">
+        <v>0.92420000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" t="s">
+        <v>544</v>
+      </c>
+      <c r="C113">
+        <v>338</v>
+      </c>
+      <c r="D113">
+        <v>338</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" t="s">
+        <v>545</v>
+      </c>
+      <c r="C114">
+        <v>95</v>
+      </c>
+      <c r="D114">
+        <v>88</v>
+      </c>
+      <c r="E114">
+        <v>7</v>
+      </c>
+      <c r="F114" s="57">
+        <v>0.92630000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" t="s">
+        <v>546</v>
+      </c>
+      <c r="C115">
+        <v>228</v>
+      </c>
+      <c r="D115">
+        <v>179</v>
+      </c>
+      <c r="E115">
+        <v>49</v>
+      </c>
+      <c r="F115" s="57">
+        <v>0.78510000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" t="s">
+        <v>547</v>
+      </c>
+      <c r="C116">
+        <v>180</v>
+      </c>
+      <c r="D116">
+        <v>140</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
+      </c>
+      <c r="F116" s="57">
+        <v>0.77780000000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>548</v>
+      </c>
+      <c r="C117">
+        <v>336</v>
+      </c>
+      <c r="D117">
+        <v>308</v>
+      </c>
+      <c r="E117">
+        <v>28</v>
+      </c>
+      <c r="F117" s="57">
+        <v>0.91669999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" t="s">
+        <v>549</v>
+      </c>
+      <c r="C118">
+        <v>418</v>
+      </c>
+      <c r="D118">
+        <v>415</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118" s="57">
+        <v>0.99280000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" t="s">
+        <v>550</v>
+      </c>
+      <c r="C119">
+        <v>598</v>
+      </c>
+      <c r="D119">
+        <v>574</v>
+      </c>
+      <c r="E119">
+        <v>24</v>
+      </c>
+      <c r="F119" s="57">
+        <v>0.95989999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" t="s">
+        <v>551</v>
+      </c>
+      <c r="C120">
+        <v>153</v>
+      </c>
+      <c r="D120">
+        <v>153</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" t="s">
+        <v>552</v>
+      </c>
+      <c r="C121">
+        <v>96</v>
+      </c>
+      <c r="D121">
+        <v>96</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" t="s">
+        <v>553</v>
+      </c>
+      <c r="C122">
+        <v>384</v>
+      </c>
+      <c r="D122">
+        <v>384</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
+        <v>554</v>
+      </c>
+      <c r="C123">
+        <v>384</v>
+      </c>
+      <c r="D123">
+        <v>358</v>
+      </c>
+      <c r="E123">
+        <v>26</v>
+      </c>
+      <c r="F123" s="57">
+        <v>0.93230000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>555</v>
+      </c>
+      <c r="C124">
+        <v>532</v>
+      </c>
+      <c r="D124">
+        <v>340</v>
+      </c>
+      <c r="E124">
+        <v>192</v>
+      </c>
+      <c r="F124" s="57">
+        <v>0.6391</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" t="s">
+        <v>556</v>
+      </c>
+      <c r="C125">
+        <v>616</v>
+      </c>
+      <c r="D125">
+        <v>488</v>
+      </c>
+      <c r="E125">
+        <v>128</v>
+      </c>
+      <c r="F125" s="57">
+        <v>0.79220000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" t="s">
+        <v>557</v>
+      </c>
+      <c r="C126">
+        <v>644</v>
+      </c>
+      <c r="D126">
+        <v>583</v>
+      </c>
+      <c r="E126">
+        <v>61</v>
+      </c>
+      <c r="F126" s="57">
+        <v>0.90529999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" t="s">
+        <v>558</v>
+      </c>
+      <c r="C127">
+        <v>475</v>
+      </c>
+      <c r="D127">
+        <v>460</v>
+      </c>
+      <c r="E127">
+        <v>15</v>
+      </c>
+      <c r="F127" s="57">
+        <v>0.96840000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" t="s">
+        <v>559</v>
+      </c>
+      <c r="C128">
+        <v>552</v>
+      </c>
+      <c r="D128">
+        <v>491</v>
+      </c>
+      <c r="E128">
+        <v>61</v>
+      </c>
+      <c r="F128" s="57">
+        <v>0.88949999999999996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" t="s">
+        <v>560</v>
+      </c>
+      <c r="C129">
+        <v>340</v>
+      </c>
+      <c r="D129">
+        <v>323</v>
+      </c>
+      <c r="E129">
+        <v>17</v>
+      </c>
+      <c r="F129" s="57">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" t="s">
+        <v>561</v>
+      </c>
+      <c r="C130">
+        <v>168</v>
+      </c>
+      <c r="D130">
+        <v>168</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" t="s">
+        <v>562</v>
+      </c>
+      <c r="C131">
+        <v>154</v>
+      </c>
+      <c r="D131">
+        <v>154</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" t="s">
+        <v>563</v>
+      </c>
+      <c r="C132">
+        <v>200</v>
+      </c>
+      <c r="D132">
+        <v>200</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" t="s">
+        <v>564</v>
+      </c>
+      <c r="C133">
+        <v>225</v>
+      </c>
+      <c r="D133">
+        <v>224</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" s="57">
+        <v>0.99560000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" t="s">
+        <v>565</v>
+      </c>
+      <c r="C134">
+        <v>338</v>
+      </c>
+      <c r="D134">
+        <v>338</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" t="s">
+        <v>566</v>
+      </c>
+      <c r="C135">
+        <v>400</v>
+      </c>
+      <c r="D135">
+        <v>400</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>567</v>
+      </c>
+      <c r="C136">
+        <v>264</v>
+      </c>
+      <c r="D136">
+        <v>264</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" t="s">
+        <v>568</v>
+      </c>
+      <c r="C137">
+        <v>16</v>
+      </c>
+      <c r="D137">
+        <v>15</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" s="57">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" t="s">
+        <v>569</v>
+      </c>
+      <c r="C138">
+        <v>690</v>
+      </c>
+      <c r="D138">
+        <v>682</v>
+      </c>
+      <c r="E138">
+        <v>8</v>
+      </c>
+      <c r="F138" s="57">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" t="s">
+        <v>570</v>
+      </c>
+      <c r="C139">
+        <v>45</v>
+      </c>
+      <c r="D139">
+        <v>45</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" t="s">
+        <v>571</v>
+      </c>
+      <c r="C140">
+        <v>322</v>
+      </c>
+      <c r="D140">
+        <v>317</v>
+      </c>
+      <c r="E140">
+        <v>5</v>
+      </c>
+      <c r="F140" s="57">
+        <v>0.98450000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" t="s">
+        <v>572</v>
+      </c>
+      <c r="C141">
+        <v>676</v>
+      </c>
+      <c r="D141">
+        <v>670</v>
+      </c>
+      <c r="E141">
+        <v>6</v>
+      </c>
+      <c r="F141" s="57">
+        <v>0.99109999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" t="s">
+        <v>573</v>
+      </c>
+      <c r="C142">
+        <v>198</v>
+      </c>
+      <c r="D142">
+        <v>196</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142" s="57">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" t="s">
+        <v>574</v>
+      </c>
+      <c r="C143">
+        <v>187</v>
+      </c>
+      <c r="D143">
+        <v>163</v>
+      </c>
+      <c r="E143">
+        <v>24</v>
+      </c>
+      <c r="F143" s="57">
+        <v>0.87170000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" t="s">
+        <v>575</v>
+      </c>
+      <c r="C144">
+        <v>96</v>
+      </c>
+      <c r="D144">
+        <v>76</v>
+      </c>
+      <c r="E144">
+        <v>20</v>
+      </c>
+      <c r="F144" s="57">
+        <v>0.79169999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" t="s">
+        <v>576</v>
+      </c>
+      <c r="C145">
+        <v>180</v>
+      </c>
+      <c r="D145">
+        <v>158</v>
+      </c>
+      <c r="E145">
+        <v>22</v>
+      </c>
+      <c r="F145" s="57">
+        <v>0.87780000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" t="s">
+        <v>577</v>
+      </c>
+      <c r="C146">
+        <v>18</v>
+      </c>
+      <c r="D146">
+        <v>18</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" t="s">
+        <v>578</v>
+      </c>
+      <c r="C147">
+        <v>108</v>
+      </c>
+      <c r="D147">
+        <v>108</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" t="s">
+        <v>579</v>
+      </c>
+      <c r="C148">
+        <v>70</v>
+      </c>
+      <c r="D148">
+        <v>70</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" t="s">
+        <v>580</v>
+      </c>
+      <c r="C149">
+        <v>253</v>
+      </c>
+      <c r="D149">
+        <v>251</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" s="57">
+        <v>0.99209999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" t="s">
+        <v>581</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>20</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" t="s">
+        <v>582</v>
+      </c>
+      <c r="C151">
+        <v>90</v>
+      </c>
+      <c r="D151">
+        <v>90</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" t="s">
+        <v>583</v>
+      </c>
+      <c r="C152">
+        <v>33</v>
+      </c>
+      <c r="D152">
+        <v>31</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" s="57">
+        <v>0.93940000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153" t="s">
+        <v>584</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" t="s">
+        <v>585</v>
+      </c>
+      <c r="C154">
+        <v>33</v>
+      </c>
+      <c r="D154">
+        <v>22</v>
+      </c>
+      <c r="E154">
+        <v>11</v>
+      </c>
+      <c r="F154" s="57">
+        <v>0.66669999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" t="s">
+        <v>586</v>
+      </c>
+      <c r="C155">
+        <v>18</v>
+      </c>
+      <c r="D155">
+        <v>18</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" t="s">
+        <v>587</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157" t="s">
+        <v>588</v>
+      </c>
+      <c r="C157">
+        <v>36</v>
+      </c>
+      <c r="D157">
+        <v>35</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" s="57">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>589</v>
+      </c>
+      <c r="C158">
+        <v>35</v>
+      </c>
+      <c r="D158">
+        <v>30</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158" s="57">
+        <v>0.85709999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" t="s">
+        <v>590</v>
+      </c>
+      <c r="C159">
+        <v>55</v>
+      </c>
+      <c r="D159">
+        <v>51</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159" s="57">
+        <v>0.92730000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>591</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+      <c r="D160">
+        <v>8</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" t="s">
+        <v>592</v>
+      </c>
+      <c r="C161">
+        <v>345</v>
+      </c>
+      <c r="D161">
+        <v>340</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161" s="57">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>28</v>
+      </c>
+      <c r="B162" t="s">
+        <v>593</v>
+      </c>
+      <c r="C162">
+        <v>364</v>
+      </c>
+      <c r="D162">
+        <v>350</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
+      </c>
+      <c r="F162" s="57">
+        <v>0.96150000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" t="s">
+        <v>594</v>
+      </c>
+      <c r="C163">
+        <v>299</v>
+      </c>
+      <c r="D163">
+        <v>286</v>
+      </c>
+      <c r="E163">
+        <v>13</v>
+      </c>
+      <c r="F163" s="57">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>29</v>
+      </c>
+      <c r="B164" t="s">
+        <v>595</v>
+      </c>
+      <c r="C164">
+        <v>600</v>
+      </c>
+      <c r="D164">
+        <v>600</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" t="s">
+        <v>596</v>
+      </c>
+      <c r="C165">
+        <v>162</v>
+      </c>
+      <c r="D165">
+        <v>162</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
+        <v>597</v>
+      </c>
+      <c r="C166">
+        <v>189</v>
+      </c>
+      <c r="D166">
+        <v>151</v>
+      </c>
+      <c r="E166">
+        <v>38</v>
+      </c>
+      <c r="F166" s="57">
+        <v>0.79890000000000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167" t="s">
+        <v>598</v>
+      </c>
+      <c r="C167">
+        <v>180</v>
+      </c>
+      <c r="D167">
+        <v>180</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" t="s">
+        <v>599</v>
+      </c>
+      <c r="C168">
+        <v>220</v>
+      </c>
+      <c r="D168">
+        <v>190</v>
+      </c>
+      <c r="E168">
+        <v>30</v>
+      </c>
+      <c r="F168" s="57">
+        <v>0.86360000000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" t="s">
+        <v>600</v>
+      </c>
+      <c r="C169">
+        <v>114</v>
+      </c>
+      <c r="D169">
+        <v>78</v>
+      </c>
+      <c r="E169">
+        <v>36</v>
+      </c>
+      <c r="F169" s="57">
+        <v>0.68420000000000003</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170" t="s">
+        <v>601</v>
+      </c>
+      <c r="C170">
+        <v>160</v>
+      </c>
+      <c r="D170">
+        <v>160</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" t="s">
+        <v>602</v>
+      </c>
+      <c r="C171">
+        <v>198</v>
+      </c>
+      <c r="D171">
+        <v>187</v>
+      </c>
+      <c r="E171">
+        <v>11</v>
+      </c>
+      <c r="F171" s="57">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172" t="s">
+        <v>603</v>
+      </c>
+      <c r="C172">
+        <v>50</v>
+      </c>
+      <c r="D172">
+        <v>38</v>
+      </c>
+      <c r="E172">
+        <v>12</v>
+      </c>
+      <c r="F172" s="57">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" t="s">
+        <v>604</v>
+      </c>
+      <c r="C173">
+        <v>152</v>
+      </c>
+      <c r="D173">
+        <v>152</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" t="s">
+        <v>605</v>
+      </c>
+      <c r="C174">
+        <v>132</v>
+      </c>
+      <c r="D174">
+        <v>132</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" t="s">
+        <v>606</v>
+      </c>
+      <c r="C175">
+        <v>132</v>
+      </c>
+      <c r="D175">
+        <v>132</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176" t="s">
+        <v>607</v>
+      </c>
+      <c r="C176">
+        <v>160</v>
+      </c>
+      <c r="D176">
+        <v>159</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" s="57">
+        <v>0.99380000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" t="s">
+        <v>608</v>
+      </c>
+      <c r="C177">
+        <v>162</v>
+      </c>
+      <c r="D177">
+        <v>117</v>
+      </c>
+      <c r="E177">
+        <v>45</v>
+      </c>
+      <c r="F177" s="57">
+        <v>0.72219999999999995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" t="s">
+        <v>609</v>
+      </c>
+      <c r="C178">
+        <v>92</v>
+      </c>
+      <c r="D178">
+        <v>84</v>
+      </c>
+      <c r="E178">
+        <v>8</v>
+      </c>
+      <c r="F178" s="57">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" t="s">
+        <v>610</v>
+      </c>
+      <c r="C179">
+        <v>22</v>
+      </c>
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>12</v>
+      </c>
+      <c r="F179" s="57">
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" t="s">
+        <v>611</v>
+      </c>
+      <c r="C180">
+        <v>220</v>
+      </c>
+      <c r="D180">
+        <v>199</v>
+      </c>
+      <c r="E180">
+        <v>21</v>
+      </c>
+      <c r="F180" s="57">
+        <v>0.90449999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" t="s">
+        <v>612</v>
+      </c>
+      <c r="C181">
+        <v>60</v>
+      </c>
+      <c r="D181">
+        <v>53</v>
+      </c>
+      <c r="E181">
+        <v>7</v>
+      </c>
+      <c r="F181" s="57">
+        <v>0.88329999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" t="s">
+        <v>613</v>
+      </c>
+      <c r="C182">
+        <v>198</v>
+      </c>
+      <c r="D182">
+        <v>198</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" t="s">
+        <v>614</v>
+      </c>
+      <c r="C183">
+        <v>675</v>
+      </c>
+      <c r="D183">
+        <v>571</v>
+      </c>
+      <c r="E183">
+        <v>104</v>
+      </c>
+      <c r="F183" s="57">
+        <v>0.84589999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>30</v>
+      </c>
+      <c r="B184" t="s">
+        <v>615</v>
+      </c>
+      <c r="C184">
+        <v>286</v>
+      </c>
+      <c r="D184">
+        <v>240</v>
+      </c>
+      <c r="E184">
+        <v>46</v>
+      </c>
+      <c r="F184" s="57">
+        <v>0.83919999999999995</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" t="s">
+        <v>616</v>
+      </c>
+      <c r="C185">
+        <v>240</v>
+      </c>
+      <c r="D185">
+        <v>189</v>
+      </c>
+      <c r="E185">
+        <v>51</v>
+      </c>
+      <c r="F185" s="57">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186" t="s">
+        <v>617</v>
+      </c>
+      <c r="C186">
+        <v>40</v>
+      </c>
+      <c r="D186">
+        <v>36</v>
+      </c>
+      <c r="E186">
+        <v>4</v>
+      </c>
+      <c r="F186" s="57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>30</v>
+      </c>
+      <c r="B187" t="s">
+        <v>618</v>
+      </c>
+      <c r="C187">
+        <v>90</v>
+      </c>
+      <c r="D187">
+        <v>75</v>
+      </c>
+      <c r="E187">
+        <v>15</v>
+      </c>
+      <c r="F187" s="57">
+        <v>0.83330000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>30</v>
+      </c>
+      <c r="B188" t="s">
+        <v>619</v>
+      </c>
+      <c r="C188">
+        <v>300</v>
+      </c>
+      <c r="D188">
+        <v>300</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189" t="s">
+        <v>620</v>
+      </c>
+      <c r="C189">
+        <v>1074</v>
+      </c>
+      <c r="D189">
+        <v>694</v>
+      </c>
+      <c r="E189">
+        <v>380</v>
+      </c>
+      <c r="F189" s="57">
+        <v>0.6462</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" t="s">
+        <v>621</v>
+      </c>
+      <c r="C190">
+        <v>350</v>
+      </c>
+      <c r="D190">
+        <v>275</v>
+      </c>
+      <c r="E190">
+        <v>75</v>
+      </c>
+      <c r="F190" s="57">
+        <v>0.78569999999999995</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" t="s">
+        <v>622</v>
+      </c>
+      <c r="C191">
+        <v>805</v>
+      </c>
+      <c r="D191">
+        <v>694</v>
+      </c>
+      <c r="E191">
+        <v>111</v>
+      </c>
+      <c r="F191" s="57">
+        <v>0.86209999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" t="s">
+        <v>623</v>
+      </c>
+      <c r="C192">
+        <v>261</v>
+      </c>
+      <c r="D192">
+        <v>225</v>
+      </c>
+      <c r="E192">
+        <v>36</v>
+      </c>
+      <c r="F192" s="57">
+        <v>0.86209999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>31</v>
+      </c>
+      <c r="B193" t="s">
+        <v>624</v>
+      </c>
+      <c r="C193">
+        <v>91</v>
+      </c>
+      <c r="D193">
+        <v>91</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>31</v>
+      </c>
+      <c r="B194" t="s">
+        <v>625</v>
+      </c>
+      <c r="C194">
+        <v>98</v>
+      </c>
+      <c r="D194">
+        <v>98</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195" t="s">
+        <v>626</v>
+      </c>
+      <c r="C195">
+        <v>144</v>
+      </c>
+      <c r="D195">
+        <v>144</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>31</v>
+      </c>
+      <c r="B196" t="s">
+        <v>627</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>32</v>
+      </c>
+      <c r="B197" t="s">
+        <v>628</v>
+      </c>
+      <c r="C197">
+        <v>22</v>
+      </c>
+      <c r="D197">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>427</v>
+      </c>
+      <c r="B198" t="s">
+        <v>629</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>427</v>
+      </c>
+      <c r="B199" t="s">
+        <v>630</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>427</v>
+      </c>
+      <c r="B200" t="s">
+        <v>631</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>427</v>
+      </c>
+      <c r="B201" t="s">
+        <v>632</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>33</v>
+      </c>
+      <c r="B202" t="s">
+        <v>633</v>
+      </c>
+      <c r="C202">
+        <v>378</v>
+      </c>
+      <c r="D202">
+        <v>314</v>
+      </c>
+      <c r="E202">
+        <v>64</v>
+      </c>
+      <c r="F202" s="57">
+        <v>0.83069999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>33</v>
+      </c>
+      <c r="B203" t="s">
+        <v>634</v>
+      </c>
+      <c r="C203">
+        <v>540</v>
+      </c>
+      <c r="D203">
+        <v>190</v>
+      </c>
+      <c r="E203">
+        <v>350</v>
+      </c>
+      <c r="F203" s="57">
+        <v>0.35189999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>33</v>
+      </c>
+      <c r="B204" t="s">
+        <v>635</v>
+      </c>
+      <c r="C204">
+        <v>406</v>
+      </c>
+      <c r="D204">
+        <v>406</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>33</v>
+      </c>
+      <c r="B205" t="s">
+        <v>636</v>
+      </c>
+      <c r="C205">
+        <v>285</v>
+      </c>
+      <c r="D205">
+        <v>284</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" s="57">
+        <v>0.99650000000000005</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>33</v>
+      </c>
+      <c r="B206" t="s">
+        <v>637</v>
+      </c>
+      <c r="C206">
+        <v>200</v>
+      </c>
+      <c r="D206">
+        <v>178</v>
+      </c>
+      <c r="E206">
+        <v>22</v>
+      </c>
+      <c r="F206" s="57">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+      <c r="B207" t="s">
+        <v>638</v>
+      </c>
+      <c r="C207">
+        <v>147</v>
+      </c>
+      <c r="D207">
+        <v>126</v>
+      </c>
+      <c r="E207">
+        <v>21</v>
+      </c>
+      <c r="F207" s="57">
+        <v>0.85709999999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>33</v>
+      </c>
+      <c r="B208" t="s">
+        <v>639</v>
+      </c>
+      <c r="C208">
+        <v>216</v>
+      </c>
+      <c r="D208">
+        <v>205</v>
+      </c>
+      <c r="E208">
+        <v>11</v>
+      </c>
+      <c r="F208" s="57">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>33</v>
+      </c>
+      <c r="B209" t="s">
+        <v>640</v>
+      </c>
+      <c r="C209">
+        <v>300</v>
+      </c>
+      <c r="D209">
+        <v>232</v>
+      </c>
+      <c r="E209">
+        <v>68</v>
+      </c>
+      <c r="F209" s="57">
+        <v>0.77329999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>33</v>
+      </c>
+      <c r="B210" t="s">
+        <v>641</v>
+      </c>
+      <c r="C210">
+        <v>390</v>
+      </c>
+      <c r="D210">
+        <v>338</v>
+      </c>
+      <c r="E210">
+        <v>52</v>
+      </c>
+      <c r="F210" s="57">
+        <v>0.86670000000000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>33</v>
+      </c>
+      <c r="B211" t="s">
+        <v>642</v>
+      </c>
+      <c r="C211">
+        <v>176</v>
+      </c>
+      <c r="D211">
+        <v>174</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211" s="57">
+        <v>0.98860000000000003</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>33</v>
+      </c>
+      <c r="B212" t="s">
+        <v>643</v>
+      </c>
+      <c r="C212">
+        <v>224</v>
+      </c>
+      <c r="D212">
+        <v>224</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>33</v>
+      </c>
+      <c r="B213" t="s">
+        <v>644</v>
+      </c>
+      <c r="C213">
+        <v>160</v>
+      </c>
+      <c r="D213">
+        <v>159</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" s="57">
+        <v>0.99380000000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>33</v>
+      </c>
+      <c r="B214" t="s">
+        <v>645</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>34</v>
+      </c>
+      <c r="B215" t="s">
+        <v>646</v>
+      </c>
+      <c r="C215">
+        <v>612</v>
+      </c>
+      <c r="D215">
+        <v>611</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" s="57">
+        <v>0.99839999999999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>34</v>
+      </c>
+      <c r="B216" t="s">
+        <v>647</v>
+      </c>
+      <c r="C216">
+        <v>200</v>
+      </c>
+      <c r="D216">
+        <v>197</v>
+      </c>
+      <c r="E216">
+        <v>3</v>
+      </c>
+      <c r="F216" s="57">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>34</v>
+      </c>
+      <c r="B217" t="s">
+        <v>648</v>
+      </c>
+      <c r="C217">
+        <v>972</v>
+      </c>
+      <c r="D217">
+        <v>950</v>
+      </c>
+      <c r="E217">
+        <v>22</v>
+      </c>
+      <c r="F217" s="57">
+        <v>0.97740000000000005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>34</v>
+      </c>
+      <c r="B218" t="s">
+        <v>649</v>
+      </c>
+      <c r="C218">
+        <v>119</v>
+      </c>
+      <c r="D218">
+        <v>118</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" s="57">
+        <v>0.99160000000000004</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>34</v>
+      </c>
+      <c r="B219" t="s">
+        <v>650</v>
+      </c>
+      <c r="C219">
+        <v>529</v>
+      </c>
+      <c r="D219">
+        <v>524</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219" s="57">
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>34</v>
+      </c>
+      <c r="B220" t="s">
+        <v>651</v>
+      </c>
+      <c r="C220">
+        <v>620</v>
+      </c>
+      <c r="D220">
+        <v>609</v>
+      </c>
+      <c r="E220">
+        <v>11</v>
+      </c>
+      <c r="F220" s="57">
+        <v>0.98229999999999995</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>34</v>
+      </c>
+      <c r="B221" t="s">
+        <v>652</v>
+      </c>
+      <c r="C221">
+        <v>414</v>
+      </c>
+      <c r="D221">
+        <v>407</v>
+      </c>
+      <c r="E221">
+        <v>7</v>
+      </c>
+      <c r="F221" s="57">
+        <v>0.98309999999999997</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>34</v>
+      </c>
+      <c r="B222" t="s">
+        <v>653</v>
+      </c>
+      <c r="C222">
+        <v>286</v>
+      </c>
+      <c r="D222">
+        <v>271</v>
+      </c>
+      <c r="E222">
+        <v>15</v>
+      </c>
+      <c r="F222" s="57">
+        <v>0.9476</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>35</v>
+      </c>
+      <c r="B223" t="s">
+        <v>654</v>
+      </c>
+      <c r="C223">
+        <v>600</v>
+      </c>
+      <c r="D223">
+        <v>426</v>
+      </c>
+      <c r="E223">
+        <v>174</v>
+      </c>
+      <c r="F223" s="57">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>36</v>
+      </c>
+      <c r="B224" t="s">
+        <v>655</v>
+      </c>
+      <c r="C224">
+        <v>153</v>
+      </c>
+      <c r="D224">
+        <v>153</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>36</v>
+      </c>
+      <c r="B225" t="s">
+        <v>656</v>
+      </c>
+      <c r="C225">
+        <v>264</v>
+      </c>
+      <c r="D225">
+        <v>261</v>
+      </c>
+      <c r="E225">
+        <v>3</v>
+      </c>
+      <c r="F225" s="57">
+        <v>0.98860000000000003</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>36</v>
+      </c>
+      <c r="B226" t="s">
+        <v>657</v>
+      </c>
+      <c r="C226">
+        <v>160</v>
+      </c>
+      <c r="D226">
+        <v>160</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>36</v>
+      </c>
+      <c r="B227" t="s">
+        <v>658</v>
+      </c>
+      <c r="C227">
+        <v>304</v>
+      </c>
+      <c r="D227">
+        <v>304</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>36</v>
+      </c>
+      <c r="B228" t="s">
+        <v>659</v>
+      </c>
+      <c r="C228">
+        <v>162</v>
+      </c>
+      <c r="D228">
+        <v>162</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>36</v>
+      </c>
+      <c r="B229" t="s">
+        <v>660</v>
+      </c>
+      <c r="C229">
+        <v>306</v>
+      </c>
+      <c r="D229">
+        <v>306</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>37</v>
+      </c>
+      <c r="B230" t="s">
+        <v>661</v>
+      </c>
+      <c r="C230">
+        <v>540</v>
+      </c>
+      <c r="D230">
+        <v>498</v>
+      </c>
+      <c r="E230">
+        <v>42</v>
+      </c>
+      <c r="F230" s="57">
+        <v>0.92220000000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>37</v>
+      </c>
+      <c r="B231" t="s">
+        <v>662</v>
+      </c>
+      <c r="C231">
+        <v>544</v>
+      </c>
+      <c r="D231">
+        <v>540</v>
+      </c>
+      <c r="E231">
+        <v>4</v>
+      </c>
+      <c r="F231" s="57">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>37</v>
+      </c>
+      <c r="B232" t="s">
+        <v>663</v>
+      </c>
+      <c r="C232">
+        <v>546</v>
+      </c>
+      <c r="D232">
+        <v>542</v>
+      </c>
+      <c r="E232">
+        <v>4</v>
+      </c>
+      <c r="F232" s="57">
+        <v>0.99270000000000003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>37</v>
+      </c>
+      <c r="B233" t="s">
+        <v>664</v>
+      </c>
+      <c r="C233">
+        <v>256</v>
+      </c>
+      <c r="D233">
+        <v>256</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>37</v>
+      </c>
+      <c r="B234" t="s">
+        <v>665</v>
+      </c>
+      <c r="C234">
+        <v>171</v>
+      </c>
+      <c r="D234">
+        <v>170</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" s="57">
+        <v>0.99419999999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>37</v>
+      </c>
+      <c r="B235" t="s">
+        <v>666</v>
+      </c>
+      <c r="C235">
+        <v>420</v>
+      </c>
+      <c r="D235">
+        <v>415</v>
+      </c>
+      <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="F235" s="57">
+        <v>0.98809999999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>37</v>
+      </c>
+      <c r="B236" t="s">
+        <v>667</v>
+      </c>
+      <c r="C236">
+        <v>429</v>
+      </c>
+      <c r="D236">
+        <v>429</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>38</v>
+      </c>
+      <c r="B237" t="s">
+        <v>668</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+      <c r="D237">
+        <v>20</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>39</v>
+      </c>
+      <c r="B238" t="s">
+        <v>669</v>
+      </c>
+      <c r="C238">
+        <v>616</v>
+      </c>
+      <c r="D238">
+        <v>566</v>
+      </c>
+      <c r="E238">
+        <v>50</v>
+      </c>
+      <c r="F238" s="57">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>39</v>
+      </c>
+      <c r="B239" t="s">
+        <v>670</v>
+      </c>
+      <c r="C239">
+        <v>299</v>
+      </c>
+      <c r="D239">
+        <v>299</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>39</v>
+      </c>
+      <c r="B240" t="s">
+        <v>671</v>
+      </c>
+      <c r="C240">
+        <v>48</v>
+      </c>
+      <c r="D240">
+        <v>48</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>39</v>
+      </c>
+      <c r="B241" t="s">
+        <v>672</v>
+      </c>
+      <c r="C241">
+        <v>36</v>
+      </c>
+      <c r="D241">
+        <v>36</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>39</v>
+      </c>
+      <c r="B242" t="s">
+        <v>673</v>
+      </c>
+      <c r="C242">
+        <v>120</v>
+      </c>
+      <c r="D242">
+        <v>50</v>
+      </c>
+      <c r="E242">
+        <v>70</v>
+      </c>
+      <c r="F242" s="57">
+        <v>0.41670000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>40</v>
+      </c>
+      <c r="B243" t="s">
+        <v>674</v>
+      </c>
+      <c r="C243">
+        <v>110</v>
+      </c>
+      <c r="D243">
+        <v>100</v>
+      </c>
+      <c r="E243">
+        <v>10</v>
+      </c>
+      <c r="F243" s="57">
+        <v>0.90910000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>41</v>
+      </c>
+      <c r="B244" t="s">
+        <v>675</v>
+      </c>
+      <c r="C244">
+        <v>672</v>
+      </c>
+      <c r="D244">
+        <v>667</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244" s="57">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>41</v>
+      </c>
+      <c r="B245" t="s">
+        <v>676</v>
+      </c>
+      <c r="C245">
+        <v>518</v>
+      </c>
+      <c r="D245">
+        <v>518</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>41</v>
+      </c>
+      <c r="B246" t="s">
+        <v>677</v>
+      </c>
+      <c r="C246">
+        <v>735</v>
+      </c>
+      <c r="D246">
+        <v>735</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>41</v>
+      </c>
+      <c r="B247" t="s">
+        <v>678</v>
+      </c>
+      <c r="C247">
+        <v>252</v>
+      </c>
+      <c r="D247">
+        <v>252</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>41</v>
+      </c>
+      <c r="B248" t="s">
+        <v>679</v>
+      </c>
+      <c r="C248">
+        <v>168</v>
+      </c>
+      <c r="D248">
+        <v>168</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>41</v>
+      </c>
+      <c r="B249" t="s">
+        <v>680</v>
+      </c>
+      <c r="C249">
+        <v>252</v>
+      </c>
+      <c r="D249">
+        <v>252</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>42</v>
+      </c>
+      <c r="B250" t="s">
+        <v>681</v>
+      </c>
+      <c r="C250">
+        <v>294</v>
+      </c>
+      <c r="D250">
+        <v>283</v>
+      </c>
+      <c r="E250">
+        <v>11</v>
+      </c>
+      <c r="F250" s="57">
+        <v>0.96260000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>42</v>
+      </c>
+      <c r="B251" t="s">
+        <v>682</v>
+      </c>
+      <c r="C251">
+        <v>506</v>
+      </c>
+      <c r="D251">
+        <v>502</v>
+      </c>
+      <c r="E251">
+        <v>4</v>
+      </c>
+      <c r="F251" s="57">
+        <v>0.99209999999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>42</v>
+      </c>
+      <c r="B252" t="s">
+        <v>683</v>
+      </c>
+      <c r="C252">
+        <v>540</v>
+      </c>
+      <c r="D252">
+        <v>528</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252" s="57">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>42</v>
+      </c>
+      <c r="B253" t="s">
+        <v>684</v>
+      </c>
+      <c r="C253">
+        <v>567</v>
+      </c>
+      <c r="D253">
+        <v>539</v>
+      </c>
+      <c r="E253">
+        <v>28</v>
+      </c>
+      <c r="F253" s="57">
+        <v>0.9506</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>42</v>
+      </c>
+      <c r="B254" t="s">
+        <v>685</v>
+      </c>
+      <c r="C254">
+        <v>442</v>
+      </c>
+      <c r="D254">
+        <v>413</v>
+      </c>
+      <c r="E254">
+        <v>29</v>
+      </c>
+      <c r="F254" s="57">
+        <v>0.93440000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>42</v>
+      </c>
+      <c r="B255" t="s">
+        <v>686</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>42</v>
+      </c>
+      <c r="B256" t="s">
+        <v>687</v>
+      </c>
+      <c r="C256">
+        <v>325</v>
+      </c>
+      <c r="D256">
+        <v>325</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>43</v>
+      </c>
+      <c r="B257" t="s">
+        <v>688</v>
+      </c>
+      <c r="C257">
+        <v>264</v>
+      </c>
+      <c r="D257">
+        <v>214</v>
+      </c>
+      <c r="E257">
+        <v>50</v>
+      </c>
+      <c r="F257" s="57">
+        <v>0.81059999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>44</v>
+      </c>
+      <c r="B258" t="s">
+        <v>689</v>
+      </c>
+      <c r="C258">
+        <v>54</v>
+      </c>
+      <c r="D258">
+        <v>54</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>44</v>
+      </c>
+      <c r="B259" t="s">
+        <v>690</v>
+      </c>
+      <c r="C259">
+        <v>40</v>
+      </c>
+      <c r="D259">
+        <v>40</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>44</v>
+      </c>
+      <c r="B260" t="s">
+        <v>691</v>
+      </c>
+      <c r="C260">
+        <v>22</v>
+      </c>
+      <c r="D260">
+        <v>22</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>44</v>
+      </c>
+      <c r="B261" t="s">
+        <v>692</v>
+      </c>
+      <c r="C261">
+        <v>85</v>
+      </c>
+      <c r="D261">
+        <v>72</v>
+      </c>
+      <c r="E261">
+        <v>13</v>
+      </c>
+      <c r="F261" s="57">
+        <v>0.84709999999999996</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>44</v>
+      </c>
+      <c r="B262" t="s">
+        <v>693</v>
+      </c>
+      <c r="C262">
+        <v>56</v>
+      </c>
+      <c r="D262">
+        <v>56</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>44</v>
+      </c>
+      <c r="B263" t="s">
+        <v>694</v>
+      </c>
+      <c r="C263">
+        <v>96</v>
+      </c>
+      <c r="D263">
+        <v>96</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>44</v>
+      </c>
+      <c r="B264" t="s">
+        <v>695</v>
+      </c>
+      <c r="C264">
+        <v>50</v>
+      </c>
+      <c r="D264">
+        <v>46</v>
+      </c>
+      <c r="E264">
+        <v>4</v>
+      </c>
+      <c r="F264" s="57">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>44</v>
+      </c>
+      <c r="B265" t="s">
+        <v>696</v>
+      </c>
+      <c r="C265">
+        <v>40</v>
+      </c>
+      <c r="D265">
+        <v>40</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>44</v>
+      </c>
+      <c r="B266" t="s">
+        <v>697</v>
+      </c>
+      <c r="C266">
+        <v>102</v>
+      </c>
+      <c r="D266">
+        <v>102</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>44</v>
+      </c>
+      <c r="B267" t="s">
+        <v>698</v>
+      </c>
+      <c r="C267">
+        <v>40</v>
+      </c>
+      <c r="D267">
+        <v>40</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>44</v>
+      </c>
+      <c r="B268" t="s">
+        <v>699</v>
+      </c>
+      <c r="C268">
+        <v>110</v>
+      </c>
+      <c r="D268">
+        <v>102</v>
+      </c>
+      <c r="E268">
+        <v>8</v>
+      </c>
+      <c r="F268" s="57">
+        <v>0.92730000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>44</v>
+      </c>
+      <c r="B269" t="s">
+        <v>700</v>
+      </c>
+      <c r="C269">
+        <v>133</v>
+      </c>
+      <c r="D269">
+        <v>109</v>
+      </c>
+      <c r="E269">
+        <v>24</v>
+      </c>
+      <c r="F269" s="57">
+        <v>0.81950000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>44</v>
+      </c>
+      <c r="B270" t="s">
+        <v>701</v>
+      </c>
+      <c r="C270">
+        <v>54</v>
+      </c>
+      <c r="D270">
+        <v>54</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>44</v>
+      </c>
+      <c r="B271" t="s">
+        <v>702</v>
+      </c>
+      <c r="C271">
+        <v>40</v>
+      </c>
+      <c r="D271">
+        <v>33</v>
+      </c>
+      <c r="E271">
+        <v>7</v>
+      </c>
+      <c r="F271" s="57">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>44</v>
+      </c>
+      <c r="B272" t="s">
+        <v>703</v>
+      </c>
+      <c r="C272">
+        <v>72</v>
+      </c>
+      <c r="D272">
+        <v>65</v>
+      </c>
+      <c r="E272">
+        <v>7</v>
+      </c>
+      <c r="F272" s="57">
+        <v>0.90280000000000005</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>44</v>
+      </c>
+      <c r="B273" t="s">
+        <v>704</v>
+      </c>
+      <c r="C273">
+        <v>44</v>
+      </c>
+      <c r="D273">
+        <v>44</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>44</v>
+      </c>
+      <c r="B274" t="s">
+        <v>705</v>
+      </c>
+      <c r="C274">
+        <v>24</v>
+      </c>
+      <c r="D274">
+        <v>24</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>44</v>
+      </c>
+      <c r="B275" t="s">
+        <v>706</v>
+      </c>
+      <c r="C275">
+        <v>64</v>
+      </c>
+      <c r="D275">
+        <v>64</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>44</v>
+      </c>
+      <c r="B276" t="s">
+        <v>707</v>
+      </c>
+      <c r="C276">
+        <v>154</v>
+      </c>
+      <c r="D276">
+        <v>106</v>
+      </c>
+      <c r="E276">
+        <v>48</v>
+      </c>
+      <c r="F276" s="57">
+        <v>0.68830000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>44</v>
+      </c>
+      <c r="B277" t="s">
+        <v>708</v>
+      </c>
+      <c r="C277">
+        <v>24</v>
+      </c>
+      <c r="D277">
+        <v>24</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>44</v>
+      </c>
+      <c r="B278" t="s">
+        <v>709</v>
+      </c>
+      <c r="C278">
+        <v>21</v>
+      </c>
+      <c r="D278">
+        <v>21</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>44</v>
+      </c>
+      <c r="B279" t="s">
+        <v>710</v>
+      </c>
+      <c r="C279">
+        <v>144</v>
+      </c>
+      <c r="D279">
+        <v>139</v>
+      </c>
+      <c r="E279">
+        <v>5</v>
+      </c>
+      <c r="F279" s="57">
+        <v>0.96530000000000005</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>44</v>
+      </c>
+      <c r="B280" t="s">
+        <v>711</v>
+      </c>
+      <c r="C280">
+        <v>40</v>
+      </c>
+      <c r="D280">
+        <v>40</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>44</v>
+      </c>
+      <c r="B281" t="s">
+        <v>712</v>
+      </c>
+      <c r="C281">
+        <v>143</v>
+      </c>
+      <c r="D281">
+        <v>143</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>44</v>
+      </c>
+      <c r="B282" t="s">
+        <v>713</v>
+      </c>
+      <c r="C282">
+        <v>20</v>
+      </c>
+      <c r="D282">
+        <v>20</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>44</v>
+      </c>
+      <c r="B283" t="s">
+        <v>714</v>
+      </c>
+      <c r="C283">
+        <v>42</v>
+      </c>
+      <c r="D283">
+        <v>42</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>44</v>
+      </c>
+      <c r="B284" t="s">
+        <v>715</v>
+      </c>
+      <c r="C284">
+        <v>22</v>
+      </c>
+      <c r="D284">
+        <v>22</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>44</v>
+      </c>
+      <c r="B285" t="s">
+        <v>716</v>
+      </c>
+      <c r="C285">
+        <v>54</v>
+      </c>
+      <c r="D285">
+        <v>54</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>44</v>
+      </c>
+      <c r="B286" t="s">
+        <v>717</v>
+      </c>
+      <c r="C286">
+        <v>70</v>
+      </c>
+      <c r="D286">
+        <v>59</v>
+      </c>
+      <c r="E286">
+        <v>11</v>
+      </c>
+      <c r="F286" s="57">
+        <v>0.84289999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>44</v>
+      </c>
+      <c r="B287" t="s">
+        <v>718</v>
+      </c>
+      <c r="C287">
+        <v>36</v>
+      </c>
+      <c r="D287">
+        <v>36</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>44</v>
+      </c>
+      <c r="B288" t="s">
+        <v>719</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>44</v>
+      </c>
+      <c r="B289" t="s">
+        <v>720</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>44</v>
+      </c>
+      <c r="B290" t="s">
+        <v>721</v>
+      </c>
+      <c r="C290">
+        <v>72</v>
+      </c>
+      <c r="D290">
+        <v>68</v>
+      </c>
+      <c r="E290">
+        <v>4</v>
+      </c>
+      <c r="F290" s="57">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>44</v>
+      </c>
+      <c r="B291" t="s">
+        <v>722</v>
+      </c>
+      <c r="C291">
+        <v>108</v>
+      </c>
+      <c r="D291">
+        <v>97</v>
+      </c>
+      <c r="E291">
+        <v>11</v>
+      </c>
+      <c r="F291" s="57">
+        <v>0.89810000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>44</v>
+      </c>
+      <c r="B292" t="s">
+        <v>723</v>
+      </c>
+      <c r="C292">
+        <v>56</v>
+      </c>
+      <c r="D292">
+        <v>54</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292" s="57">
+        <v>0.96430000000000005</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>44</v>
+      </c>
+      <c r="B293" t="s">
+        <v>724</v>
+      </c>
+      <c r="C293">
+        <v>40</v>
+      </c>
+      <c r="D293">
+        <v>40</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>44</v>
+      </c>
+      <c r="B294" t="s">
+        <v>725</v>
+      </c>
+      <c r="C294">
+        <v>28</v>
+      </c>
+      <c r="D294">
+        <v>27</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294" s="57">
+        <v>0.96430000000000005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>44</v>
+      </c>
+      <c r="B295" t="s">
+        <v>726</v>
+      </c>
+      <c r="C295">
+        <v>78</v>
+      </c>
+      <c r="D295">
+        <v>70</v>
+      </c>
+      <c r="E295">
+        <v>8</v>
+      </c>
+      <c r="F295" s="57">
+        <v>0.89739999999999998</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>44</v>
+      </c>
+      <c r="B296" t="s">
+        <v>727</v>
+      </c>
+      <c r="C296">
+        <v>32</v>
+      </c>
+      <c r="D296">
+        <v>32</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="s">
+        <v>44</v>
+      </c>
+      <c r="B297" t="s">
+        <v>728</v>
+      </c>
+      <c r="C297">
+        <v>104</v>
+      </c>
+      <c r="D297">
+        <v>104</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>44</v>
+      </c>
+      <c r="B298" t="s">
+        <v>729</v>
+      </c>
+      <c r="C298">
+        <v>54</v>
+      </c>
+      <c r="D298">
+        <v>54</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>44</v>
+      </c>
+      <c r="B299" t="s">
+        <v>730</v>
+      </c>
+      <c r="C299">
+        <v>45</v>
+      </c>
+      <c r="D299">
+        <v>45</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>44</v>
+      </c>
+      <c r="B300" t="s">
+        <v>731</v>
+      </c>
+      <c r="C300">
+        <v>56</v>
+      </c>
+      <c r="D300">
+        <v>56</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>44</v>
+      </c>
+      <c r="B301" t="s">
+        <v>732</v>
+      </c>
+      <c r="C301">
+        <v>70</v>
+      </c>
+      <c r="D301">
+        <v>61</v>
+      </c>
+      <c r="E301">
+        <v>9</v>
+      </c>
+      <c r="F301" s="57">
+        <v>0.87139999999999995</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>44</v>
+      </c>
+      <c r="B302" t="s">
+        <v>733</v>
+      </c>
+      <c r="C302">
+        <v>36</v>
+      </c>
+      <c r="D302">
+        <v>34</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302" s="57">
+        <v>0.94440000000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>44</v>
+      </c>
+      <c r="B303" t="s">
+        <v>734</v>
+      </c>
+      <c r="C303">
+        <v>45</v>
+      </c>
+      <c r="D303">
+        <v>36</v>
+      </c>
+      <c r="E303">
+        <v>9</v>
+      </c>
+      <c r="F303" s="57">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>44</v>
+      </c>
+      <c r="B304" t="s">
+        <v>735</v>
+      </c>
+      <c r="C304">
+        <v>35</v>
+      </c>
+      <c r="D304">
+        <v>20</v>
+      </c>
+      <c r="E304">
+        <v>15</v>
+      </c>
+      <c r="F304" s="57">
+        <v>0.57140000000000002</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>44</v>
+      </c>
+      <c r="B305" t="s">
+        <v>736</v>
+      </c>
+      <c r="C305">
+        <v>60</v>
+      </c>
+      <c r="D305">
+        <v>54</v>
+      </c>
+      <c r="E305">
+        <v>6</v>
+      </c>
+      <c r="F305" s="57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>44</v>
+      </c>
+      <c r="B306" t="s">
+        <v>737</v>
+      </c>
+      <c r="C306">
+        <v>68</v>
+      </c>
+      <c r="D306">
+        <v>68</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>44</v>
+      </c>
+      <c r="B307" t="s">
+        <v>738</v>
+      </c>
+      <c r="C307">
+        <v>49</v>
+      </c>
+      <c r="D307">
+        <v>49</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>44</v>
+      </c>
+      <c r="B308" t="s">
+        <v>739</v>
+      </c>
+      <c r="C308">
+        <v>72</v>
+      </c>
+      <c r="D308">
+        <v>72</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>44</v>
+      </c>
+      <c r="B309" t="s">
+        <v>740</v>
+      </c>
+      <c r="C309">
+        <v>117</v>
+      </c>
+      <c r="D309">
+        <v>98</v>
+      </c>
+      <c r="E309">
+        <v>19</v>
+      </c>
+      <c r="F309" s="57">
+        <v>0.83760000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>44</v>
+      </c>
+      <c r="B310" t="s">
+        <v>741</v>
+      </c>
+      <c r="C310">
+        <v>32</v>
+      </c>
+      <c r="D310">
+        <v>32</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>44</v>
+      </c>
+      <c r="B311" t="s">
+        <v>742</v>
+      </c>
+      <c r="C311">
+        <v>24</v>
+      </c>
+      <c r="D311">
+        <v>24</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+      <c r="F311" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>44</v>
+      </c>
+      <c r="B312" t="s">
+        <v>743</v>
+      </c>
+      <c r="C312">
+        <v>40</v>
+      </c>
+      <c r="D312">
+        <v>40</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>44</v>
+      </c>
+      <c r="B313" t="s">
+        <v>744</v>
+      </c>
+      <c r="C313">
+        <v>54</v>
+      </c>
+      <c r="D313">
+        <v>54</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>44</v>
+      </c>
+      <c r="B314" t="s">
+        <v>745</v>
+      </c>
+      <c r="C314">
+        <v>64</v>
+      </c>
+      <c r="D314">
+        <v>58</v>
+      </c>
+      <c r="E314">
+        <v>6</v>
+      </c>
+      <c r="F314" s="57">
+        <v>0.90620000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>44</v>
+      </c>
+      <c r="B315" t="s">
+        <v>746</v>
+      </c>
+      <c r="C315">
+        <v>126</v>
+      </c>
+      <c r="D315">
+        <v>107</v>
+      </c>
+      <c r="E315">
+        <v>19</v>
+      </c>
+      <c r="F315" s="57">
+        <v>0.84919999999999995</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>44</v>
+      </c>
+      <c r="B316" t="s">
+        <v>747</v>
+      </c>
+      <c r="C316">
+        <v>72</v>
+      </c>
+      <c r="D316">
+        <v>72</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>44</v>
+      </c>
+      <c r="B317" t="s">
+        <v>748</v>
+      </c>
+      <c r="C317">
+        <v>36</v>
+      </c>
+      <c r="D317">
+        <v>32</v>
+      </c>
+      <c r="E317">
+        <v>4</v>
+      </c>
+      <c r="F317" s="57">
+        <v>0.88890000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>44</v>
+      </c>
+      <c r="B318" t="s">
+        <v>749</v>
+      </c>
+      <c r="C318">
+        <v>105</v>
+      </c>
+      <c r="D318">
+        <v>105</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>44</v>
+      </c>
+      <c r="B319" t="s">
+        <v>750</v>
+      </c>
+      <c r="C319">
+        <v>64</v>
+      </c>
+      <c r="D319">
+        <v>56</v>
+      </c>
+      <c r="E319">
+        <v>8</v>
+      </c>
+      <c r="F319" s="57">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>44</v>
+      </c>
+      <c r="B320" t="s">
+        <v>751</v>
+      </c>
+      <c r="C320">
+        <v>75</v>
+      </c>
+      <c r="D320">
+        <v>75</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="s">
+        <v>44</v>
+      </c>
+      <c r="B321" t="s">
+        <v>752</v>
+      </c>
+      <c r="C321">
+        <v>77</v>
+      </c>
+      <c r="D321">
+        <v>70</v>
+      </c>
+      <c r="E321">
+        <v>7</v>
+      </c>
+      <c r="F321" s="57">
+        <v>0.90910000000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="s">
+        <v>44</v>
+      </c>
+      <c r="B322" t="s">
+        <v>753</v>
+      </c>
+      <c r="C322">
+        <v>42</v>
+      </c>
+      <c r="D322">
+        <v>42</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="s">
+        <v>44</v>
+      </c>
+      <c r="B323" t="s">
+        <v>754</v>
+      </c>
+      <c r="C323">
+        <v>40</v>
+      </c>
+      <c r="D323">
+        <v>40</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="s">
+        <v>44</v>
+      </c>
+      <c r="B324" t="s">
+        <v>755</v>
+      </c>
+      <c r="C324">
+        <v>56</v>
+      </c>
+      <c r="D324">
+        <v>56</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>44</v>
+      </c>
+      <c r="B325" t="s">
+        <v>756</v>
+      </c>
+      <c r="C325">
+        <v>81</v>
+      </c>
+      <c r="D325">
+        <v>72</v>
+      </c>
+      <c r="E325">
+        <v>9</v>
+      </c>
+      <c r="F325" s="57">
+        <v>0.88890000000000002</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" t="s">
+        <v>44</v>
+      </c>
+      <c r="B326" t="s">
+        <v>757</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" t="s">
+        <v>44</v>
+      </c>
+      <c r="B327" t="s">
+        <v>758</v>
+      </c>
+      <c r="C327">
+        <v>40</v>
+      </c>
+      <c r="D327">
+        <v>37</v>
+      </c>
+      <c r="E327">
+        <v>3</v>
+      </c>
+      <c r="F327" s="57">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" t="s">
+        <v>44</v>
+      </c>
+      <c r="B328" t="s">
+        <v>759</v>
+      </c>
+      <c r="C328">
+        <v>70</v>
+      </c>
+      <c r="D328">
+        <v>70</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="s">
+        <v>44</v>
+      </c>
+      <c r="B329" t="s">
+        <v>760</v>
+      </c>
+      <c r="C329">
+        <v>72</v>
+      </c>
+      <c r="D329">
+        <v>72</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" t="s">
+        <v>44</v>
+      </c>
+      <c r="B330" t="s">
+        <v>761</v>
+      </c>
+      <c r="C330">
+        <v>16</v>
+      </c>
+      <c r="D330">
+        <v>16</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" t="s">
+        <v>44</v>
+      </c>
+      <c r="B331" t="s">
+        <v>762</v>
+      </c>
+      <c r="C331">
+        <v>18</v>
+      </c>
+      <c r="D331">
+        <v>15</v>
+      </c>
+      <c r="E331">
+        <v>3</v>
+      </c>
+      <c r="F331" s="57">
+        <v>0.83330000000000004</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" t="s">
+        <v>44</v>
+      </c>
+      <c r="B332" t="s">
+        <v>763</v>
+      </c>
+      <c r="C332">
+        <v>10</v>
+      </c>
+      <c r="D332">
+        <v>10</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="s">
+        <v>44</v>
+      </c>
+      <c r="B333" t="s">
+        <v>764</v>
+      </c>
+      <c r="C333">
+        <v>21</v>
+      </c>
+      <c r="D333">
+        <v>21</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+      <c r="F333" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="s">
+        <v>45</v>
+      </c>
+      <c r="B334" t="s">
+        <v>765</v>
+      </c>
+      <c r="C334">
+        <v>120</v>
+      </c>
+      <c r="D334">
+        <v>113</v>
+      </c>
+      <c r="E334">
+        <v>7</v>
+      </c>
+      <c r="F334" s="57">
+        <v>0.94169999999999998</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="s">
+        <v>45</v>
+      </c>
+      <c r="B335" t="s">
+        <v>766</v>
+      </c>
+      <c r="C335">
+        <v>96</v>
+      </c>
+      <c r="D335">
+        <v>94</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
+      <c r="F335" s="57">
+        <v>0.97919999999999996</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" t="s">
+        <v>428</v>
+      </c>
+      <c r="B336" t="s">
+        <v>767</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="s">
+        <v>428</v>
+      </c>
+      <c r="B337" t="s">
+        <v>768</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" t="s">
+        <v>428</v>
+      </c>
+      <c r="B338" t="s">
+        <v>769</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" t="s">
+        <v>428</v>
+      </c>
+      <c r="B339" t="s">
+        <v>770</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" t="s">
+        <v>428</v>
+      </c>
+      <c r="B340" t="s">
+        <v>771</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" t="s">
+        <v>428</v>
+      </c>
+      <c r="B341" t="s">
+        <v>772</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+      <c r="F341" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" t="s">
+        <v>428</v>
+      </c>
+      <c r="B342" t="s">
+        <v>773</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="s">
+        <v>428</v>
+      </c>
+      <c r="B343" t="s">
+        <v>774</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>428</v>
+      </c>
+      <c r="B344" t="s">
+        <v>775</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="s">
+        <v>428</v>
+      </c>
+      <c r="B345" t="s">
+        <v>776</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" t="s">
+        <v>46</v>
+      </c>
+      <c r="B346" t="s">
+        <v>777</v>
+      </c>
+      <c r="C346">
+        <v>6</v>
+      </c>
+      <c r="D346">
+        <v>6</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" t="s">
+        <v>46</v>
+      </c>
+      <c r="B347" t="s">
+        <v>778</v>
+      </c>
+      <c r="C347">
+        <v>15</v>
+      </c>
+      <c r="D347">
+        <v>14</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347" s="57">
+        <v>0.93330000000000002</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="s">
+        <v>46</v>
+      </c>
+      <c r="B348" t="s">
+        <v>779</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" t="s">
+        <v>46</v>
+      </c>
+      <c r="B349" t="s">
+        <v>780</v>
+      </c>
+      <c r="C349">
+        <v>72</v>
+      </c>
+      <c r="D349">
+        <v>69</v>
+      </c>
+      <c r="E349">
+        <v>3</v>
+      </c>
+      <c r="F349" s="57">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="s">
+        <v>46</v>
+      </c>
+      <c r="B350" t="s">
+        <v>781</v>
+      </c>
+      <c r="C350">
+        <v>33</v>
+      </c>
+      <c r="D350">
+        <v>27</v>
+      </c>
+      <c r="E350">
+        <v>6</v>
+      </c>
+      <c r="F350" s="57">
+        <v>0.81820000000000004</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" t="s">
+        <v>46</v>
+      </c>
+      <c r="B351" t="s">
+        <v>782</v>
+      </c>
+      <c r="C351">
+        <v>48</v>
+      </c>
+      <c r="D351">
+        <v>34</v>
+      </c>
+      <c r="E351">
+        <v>14</v>
+      </c>
+      <c r="F351" s="57">
+        <v>0.70830000000000004</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" t="s">
+        <v>46</v>
+      </c>
+      <c r="B352" t="s">
+        <v>783</v>
+      </c>
+      <c r="C352">
+        <v>30</v>
+      </c>
+      <c r="D352">
+        <v>27</v>
+      </c>
+      <c r="E352">
+        <v>3</v>
+      </c>
+      <c r="F352" s="57">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
+        <v>46</v>
+      </c>
+      <c r="B353" t="s">
+        <v>784</v>
+      </c>
+      <c r="C353">
+        <v>120</v>
+      </c>
+      <c r="D353">
+        <v>116</v>
+      </c>
+      <c r="E353">
+        <v>4</v>
+      </c>
+      <c r="F353" s="57">
+        <v>0.9667</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="s">
+        <v>46</v>
+      </c>
+      <c r="B354" t="s">
+        <v>785</v>
+      </c>
+      <c r="C354">
+        <v>56</v>
+      </c>
+      <c r="D354">
+        <v>48</v>
+      </c>
+      <c r="E354">
+        <v>8</v>
+      </c>
+      <c r="F354" s="57">
+        <v>0.85709999999999997</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
+        <v>47</v>
+      </c>
+      <c r="B355" t="s">
+        <v>786</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="s">
+        <v>47</v>
+      </c>
+      <c r="B356" t="s">
+        <v>787</v>
+      </c>
+      <c r="C356">
+        <v>132</v>
+      </c>
+      <c r="D356">
+        <v>132</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+      <c r="F356" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="s">
+        <v>47</v>
+      </c>
+      <c r="B357" t="s">
+        <v>788</v>
+      </c>
+      <c r="C357">
+        <v>42</v>
+      </c>
+      <c r="D357">
+        <v>42</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="s">
+        <v>48</v>
+      </c>
+      <c r="B358" t="s">
+        <v>789</v>
+      </c>
+      <c r="C358">
+        <v>720</v>
+      </c>
+      <c r="D358">
+        <v>647</v>
+      </c>
+      <c r="E358">
+        <v>73</v>
+      </c>
+      <c r="F358" s="57">
+        <v>0.89859999999999995</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="s">
+        <v>48</v>
+      </c>
+      <c r="B359" t="s">
+        <v>790</v>
+      </c>
+      <c r="C359">
+        <v>70</v>
+      </c>
+      <c r="D359">
+        <v>28</v>
+      </c>
+      <c r="E359">
+        <v>42</v>
+      </c>
+      <c r="F359" s="57">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>48</v>
+      </c>
+      <c r="B360" t="s">
+        <v>791</v>
+      </c>
+      <c r="C360">
+        <v>32</v>
+      </c>
+      <c r="D360">
+        <v>32</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="s">
+        <v>48</v>
+      </c>
+      <c r="B361" t="s">
+        <v>792</v>
+      </c>
+      <c r="C361">
+        <v>672</v>
+      </c>
+      <c r="D361">
+        <v>573</v>
+      </c>
+      <c r="E361">
+        <v>99</v>
+      </c>
+      <c r="F361" s="57">
+        <v>0.85270000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
+        <v>48</v>
+      </c>
+      <c r="B362" t="s">
+        <v>793</v>
+      </c>
+      <c r="C362">
+        <v>506</v>
+      </c>
+      <c r="D362">
+        <v>380</v>
+      </c>
+      <c r="E362">
+        <v>126</v>
+      </c>
+      <c r="F362" s="57">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
+        <v>48</v>
+      </c>
+      <c r="B363" t="s">
+        <v>794</v>
+      </c>
+      <c r="C363">
+        <v>880</v>
+      </c>
+      <c r="D363">
+        <v>784</v>
+      </c>
+      <c r="E363">
+        <v>96</v>
+      </c>
+      <c r="F363" s="57">
+        <v>0.89090000000000003</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>48</v>
+      </c>
+      <c r="B364" t="s">
+        <v>795</v>
+      </c>
+      <c r="C364">
+        <v>435</v>
+      </c>
+      <c r="D364">
+        <v>338</v>
+      </c>
+      <c r="E364">
+        <v>97</v>
+      </c>
+      <c r="F364" s="57">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>48</v>
+      </c>
+      <c r="B365" t="s">
+        <v>796</v>
+      </c>
+      <c r="C365">
+        <v>624</v>
+      </c>
+      <c r="D365">
+        <v>544</v>
+      </c>
+      <c r="E365">
+        <v>80</v>
+      </c>
+      <c r="F365" s="57">
+        <v>0.87180000000000002</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>48</v>
+      </c>
+      <c r="B366" t="s">
+        <v>797</v>
+      </c>
+      <c r="C366">
+        <v>817</v>
+      </c>
+      <c r="D366">
+        <v>785</v>
+      </c>
+      <c r="E366">
+        <v>32</v>
+      </c>
+      <c r="F366" s="57">
+        <v>0.96079999999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>48</v>
+      </c>
+      <c r="B367" t="s">
+        <v>798</v>
+      </c>
+      <c r="C367">
+        <v>782</v>
+      </c>
+      <c r="D367">
+        <v>658</v>
+      </c>
+      <c r="E367">
+        <v>124</v>
+      </c>
+      <c r="F367" s="57">
+        <v>0.84140000000000004</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="s">
+        <v>48</v>
+      </c>
+      <c r="B368" t="s">
+        <v>799</v>
+      </c>
+      <c r="C368">
+        <v>615</v>
+      </c>
+      <c r="D368">
+        <v>553</v>
+      </c>
+      <c r="E368">
+        <v>62</v>
+      </c>
+      <c r="F368" s="57">
+        <v>0.8992</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
+        <v>48</v>
+      </c>
+      <c r="B369" t="s">
+        <v>800</v>
+      </c>
+      <c r="C369">
+        <v>408</v>
+      </c>
+      <c r="D369">
+        <v>408</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="s">
+        <v>48</v>
+      </c>
+      <c r="B370" t="s">
+        <v>801</v>
+      </c>
+      <c r="C370">
+        <v>504</v>
+      </c>
+      <c r="D370">
+        <v>473</v>
+      </c>
+      <c r="E370">
+        <v>31</v>
+      </c>
+      <c r="F370" s="57">
+        <v>0.9385</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="s">
+        <v>48</v>
+      </c>
+      <c r="B371" t="s">
+        <v>802</v>
+      </c>
+      <c r="C371">
+        <v>30</v>
+      </c>
+      <c r="D371">
+        <v>30</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>48</v>
+      </c>
+      <c r="B372" t="s">
+        <v>803</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="s">
+        <v>49</v>
+      </c>
+      <c r="B373" t="s">
+        <v>804</v>
+      </c>
+      <c r="C373">
+        <v>646</v>
+      </c>
+      <c r="D373">
+        <v>640</v>
+      </c>
+      <c r="E373">
+        <v>6</v>
+      </c>
+      <c r="F373" s="57">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="s">
+        <v>49</v>
+      </c>
+      <c r="B374" t="s">
+        <v>805</v>
+      </c>
+      <c r="C374">
+        <v>156</v>
+      </c>
+      <c r="D374">
+        <v>154</v>
+      </c>
+      <c r="E374">
+        <v>2</v>
+      </c>
+      <c r="F374" s="57">
+        <v>0.98719999999999997</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" t="s">
+        <v>49</v>
+      </c>
+      <c r="B375" t="s">
+        <v>806</v>
+      </c>
+      <c r="C375">
+        <v>360</v>
+      </c>
+      <c r="D375">
+        <v>358</v>
+      </c>
+      <c r="E375">
+        <v>2</v>
+      </c>
+      <c r="F375" s="57">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="s">
+        <v>49</v>
+      </c>
+      <c r="B376" t="s">
+        <v>807</v>
+      </c>
+      <c r="C376">
+        <v>609</v>
+      </c>
+      <c r="D376">
+        <v>605</v>
+      </c>
+      <c r="E376">
+        <v>4</v>
+      </c>
+      <c r="F376" s="57">
+        <v>0.99339999999999995</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
+        <v>50</v>
+      </c>
+      <c r="B377" t="s">
+        <v>808</v>
+      </c>
+      <c r="C377">
+        <v>4</v>
+      </c>
+      <c r="D377">
+        <v>4</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377" s="57">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/semana/semana_completa_17.xlsx
+++ b/semana/semana_completa_17.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28908"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B9686FD-A96E-48EE-892D-259A425DB5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D051ED6-26ED-41F0-A5DF-D9EE454B675B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Detalle_VOK" sheetId="3" r:id="rId3"/>
     <sheet name="Carta_cr" sheetId="5" r:id="rId4"/>
     <sheet name="Detalle_cr" sheetId="4" r:id="rId5"/>
+    <sheet name="Evidencia_vok" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3123" uniqueCount="899">
   <si>
     <t>c</t>
   </si>
@@ -2462,13 +2463,283 @@
   </si>
   <si>
     <t>E-WEL-N0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUTAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V MALOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBLEMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia en otra referencia no tocando punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No realiza alto , inicia en otra referencia y no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia en punto 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de sistema no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia en punto 2 </t>
+  </si>
+  <si>
+    <t>no registra punto 1 (no se a pedido el cambio de referecian de punto 1 en croquis )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia tarde y no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad confirmada no realiza recorrido programado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia antes el recorrido no registrando punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia antes el recorrido en otra referencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">se retorna nates no tocando el punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de sistema no registra punto 1, inicia tarde el recorrido  y no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de sistema no registra llegada a planta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia en punto 2, no realiza alto en punto 1 </t>
+  </si>
+  <si>
+    <t>no realiza alto en punto 1 y no hay registro del alto total.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia en punto 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasa alado del punto 1 y no realiza alto total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia en punto 2 o amediados, inicia tarde y no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia en punto 2, inicia tarde el recorrido y no registra punto inicial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No realiza alto total en punto 1, inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia tarde y no registra punto 1, no realiza alto total en la referencia en punto 1 </t>
+  </si>
+  <si>
+    <t>Inicia amediados del recorrido, no realiza ato total en punto1 y error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia tarde el recorrido y no registra punto 1 y no realiza alto total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inician en punto 3 </t>
+  </si>
+  <si>
+    <t>No realiza alto total en punto 1</t>
+  </si>
+  <si>
+    <t>Unidad confirmada no realiza recorrido programado, inicia en punto 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de sistema no registra punto 1, no realiza alto total en punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicia a mediados del recorrido punto 7, unidad confirmada no realiza recorrid programado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de sistema no registra punto 1, inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad confirmada no realiza recorrido, inicia a mediados y luego pasa por el punto 1 tarde y no lo registra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de sistema no registra punto final </t>
+  </si>
+  <si>
+    <t>Unidad confirmada no realiza recorrido programado, error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t>unidad confirmada no realiza recorrido, inicia tarde y no registra punto 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza recorrido </t>
+  </si>
+  <si>
+    <t>no realiza alto total y no registra punto 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1 y final </t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto final </t>
+  </si>
+  <si>
+    <t>inicia en punto 3</t>
+  </si>
+  <si>
+    <t>unidad confirmada no realiza recorrido programado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde y no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inician a mediado del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia antes el recorrido y no registra el punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confrimada no realiza recorrido programado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido, error de sistema no registra punto 1 he inicia tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de sistema no registra punto final, a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto final, inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t>no realiza alto en punto 1 y he inicia en punto 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1 he inicia tarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 2, error de sistema no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1 y no realiza alto en punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde el recorrido y no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediacion del recorrido , error de sistema no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 5 </t>
+  </si>
+  <si>
+    <t>inicia en punto  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto final, he inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1 y pasa tarde por el punto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido, error de sistema no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra putno 1, inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 2 y error de sistema no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto 2 , inicia tarde el recorrido y no registra punto 1 </t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto 1 ya que inicia antes el recorrido s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1y final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1, no llega a planta y no registra punto final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia a mediados del recorrido , inicia tarde y no registra punto 1 , error de sistema no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1, inicia tarde y no realiza alto total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iniciaba en punto 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1, inicia tarde y no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia punto 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confrimada no realiza recorrido programado, error de sistema no registra el punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza recorrido programado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza recorrido programado, inicia en otro lado no pasando por punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza, error de sistema no registra punto 1 </t>
+  </si>
+  <si>
+    <t>error de sistema no registra punto final, inicia tarde el recorrido y no registra punto 1 ni final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no realiza alto en punto 1 y no lo registra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde y no registra punto 1, error de sistema no registra punto 1 y final </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en tarde el recorrido no realizando alto y no registra punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error de sistema no registra punto 1 he inicia tarde y no realiza alto total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iniciatarde el recorrido y no registra punto 1, inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unidad confirmada no realiza recorrido, inicia a mediados del recorrido </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia tarde y no registra el punto 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">inicia en punto2, no realiza alto en punto 1 y no registra </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2506,8 +2777,31 @@
       <name val="Aptos ExtraBold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="46">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2778,8 +3072,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5E6A2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7E36F"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2811,11 +3123,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2878,6 +3214,17 @@
     <xf numFmtId="0" fontId="5" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="48" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -22495,9 +22842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59198C2-DBB7-4782-8F5F-38855965A5EB}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1047863"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -30554,4 +30899,2213 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C048F1E-C592-4885-AF55-2F3674FB4AC3}">
+  <dimension ref="A1:D156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="58" t="s">
+        <v>809</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>811</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" t="s">
+        <v>233</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>255</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>260</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>259</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" t="s">
+        <v>270</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>56</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" t="s">
+        <v>275</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" t="s">
+        <v>283</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" t="s">
+        <v>344</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B124" t="s">
+        <v>357</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B125" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" t="s">
+        <v>314</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B127" t="s">
+        <v>340</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>322</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B129" t="s">
+        <v>352</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B130" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" t="s">
+        <v>295</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" t="s">
+        <v>336</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" t="s">
+        <v>311</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" t="s">
+        <v>328</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B135" t="s">
+        <v>329</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B136" t="s">
+        <v>330</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" t="s">
+        <v>263</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" t="s">
+        <v>367</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" t="s">
+        <v>363</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" t="s">
+        <v>366</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" t="s">
+        <v>382</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B142" t="s">
+        <v>383</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" t="s">
+        <v>401</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" t="s">
+        <v>392</v>
+      </c>
+      <c r="C144">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" t="s">
+        <v>388</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" t="s">
+        <v>92</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+      <c r="D147" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" t="s">
+        <v>391</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B149" t="s">
+        <v>413</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" t="s">
+        <v>412</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" t="s">
+        <v>390</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B152" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C153">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B154" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="C154">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>898</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C156">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>